--- a/bmd2Samps/data/ChemicalDescriptions.xlsx
+++ b/bmd2Samps/data/ChemicalDescriptions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/bmd2Samps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{3E8F46E8-3A83-400C-A1D4-CB60954EF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2006DC36-7A54-4182-8891-B93CD4C7D0E1}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{3E8F46E8-3A83-400C-A1D4-CB60954EF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB69084-0443-4407-B5B9-19F6545ED7CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="4023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5831" uniqueCount="5134">
   <si>
     <t>DTXSID</t>
   </si>
@@ -12099,6 +12099,3339 @@
   </si>
   <si>
     <t>Atrazine is an herbicide that does not occur naturally. Pure atrazine is an odorless, white powder that is not very volatile, reactive, or flammable and that will dissolve in water. Atrazine is used to kill weeds, primarily on farms, but has also been used on highway and railroad rights-of-way. The EPA now restricts how atrazine can be used and applied; only trained people are allowed to spray it.</t>
+  </si>
+  <si>
+    <t>2381-21-7</t>
+  </si>
+  <si>
+    <t>832-69-9</t>
+  </si>
+  <si>
+    <t>205-12-9</t>
+  </si>
+  <si>
+    <t>59919-41-4</t>
+  </si>
+  <si>
+    <t>213-46-7</t>
+  </si>
+  <si>
+    <t>3697-24-3</t>
+  </si>
+  <si>
+    <t>192-51-8</t>
+  </si>
+  <si>
+    <t>196-42-9</t>
+  </si>
+  <si>
+    <t>96-12-8</t>
+  </si>
+  <si>
+    <t>134-32-7</t>
+  </si>
+  <si>
+    <t>40186-71-8</t>
+  </si>
+  <si>
+    <t>60233-25-2</t>
+  </si>
+  <si>
+    <t>58-90-2</t>
+  </si>
+  <si>
+    <t>57117-31-4</t>
+  </si>
+  <si>
+    <t>137-17-7</t>
+  </si>
+  <si>
+    <t>53-19-0</t>
+  </si>
+  <si>
+    <t>3424-82-6</t>
+  </si>
+  <si>
+    <t>87-65-0</t>
+  </si>
+  <si>
+    <t>88-74-4</t>
+  </si>
+  <si>
+    <t>88-75-5</t>
+  </si>
+  <si>
+    <t>16655-82-6</t>
+  </si>
+  <si>
+    <t>108-39-4</t>
+  </si>
+  <si>
+    <t>99-09-2</t>
+  </si>
+  <si>
+    <t>92-67-1</t>
+  </si>
+  <si>
+    <t>7005-72-3</t>
+  </si>
+  <si>
+    <t>319-84-6</t>
+  </si>
+  <si>
+    <t>5103-71-9</t>
+  </si>
+  <si>
+    <t>2032-59-9</t>
+  </si>
+  <si>
+    <t>140-57-8</t>
+  </si>
+  <si>
+    <t>1610-17-9</t>
+  </si>
+  <si>
+    <t>101-27-9</t>
+  </si>
+  <si>
+    <t>2425-06-1</t>
+  </si>
+  <si>
+    <t>786-19-6</t>
+  </si>
+  <si>
+    <t>470-90-6</t>
+  </si>
+  <si>
+    <t>5836-10-2</t>
+  </si>
+  <si>
+    <t>5103-73-1</t>
+  </si>
+  <si>
+    <t>7700-17-6</t>
+  </si>
+  <si>
+    <t>5989-27-5</t>
+  </si>
+  <si>
+    <t>319-86-8</t>
+  </si>
+  <si>
+    <t>126-75-0</t>
+  </si>
+  <si>
+    <t>2303-16-4</t>
+  </si>
+  <si>
+    <t>192-65-4</t>
+  </si>
+  <si>
+    <t>117-80-6</t>
+  </si>
+  <si>
+    <t>115-90-2</t>
+  </si>
+  <si>
+    <t>101-42-8</t>
+  </si>
+  <si>
+    <t>33245-39-5</t>
+  </si>
+  <si>
+    <t>5103-74-2</t>
+  </si>
+  <si>
+    <t>465-73-6</t>
+  </si>
+  <si>
+    <t>21609-90-5</t>
+  </si>
+  <si>
+    <t>150-50-5</t>
+  </si>
+  <si>
+    <t>2032-65-7</t>
+  </si>
+  <si>
+    <t>950-35-6</t>
+  </si>
+  <si>
+    <t>152-16-9</t>
+  </si>
+  <si>
+    <t>13171-21-6</t>
+  </si>
+  <si>
+    <t>2631-37-0</t>
+  </si>
+  <si>
+    <t>1918-16-7</t>
+  </si>
+  <si>
+    <t>122-42-9</t>
+  </si>
+  <si>
+    <t>34643-46-4</t>
+  </si>
+  <si>
+    <t>299-84-3</t>
+  </si>
+  <si>
+    <t>297-97-2</t>
+  </si>
+  <si>
+    <t>39300-45-3</t>
+  </si>
+  <si>
+    <t>6988-21-2</t>
+  </si>
+  <si>
+    <t>957-51-7</t>
+  </si>
+  <si>
+    <t>2497-06-5</t>
+  </si>
+  <si>
+    <t>33213-65-9</t>
+  </si>
+  <si>
+    <t>1031-07-8</t>
+  </si>
+  <si>
+    <t>7421-93-4</t>
+  </si>
+  <si>
+    <t>53494-70-5</t>
+  </si>
+  <si>
+    <t>52-85-7</t>
+  </si>
+  <si>
+    <t>118-74-1</t>
+  </si>
+  <si>
+    <t>27304-13-8</t>
+  </si>
+  <si>
+    <t>1114-71-2</t>
+  </si>
+  <si>
+    <t>608-93-5</t>
+  </si>
+  <si>
+    <t>26259-45-0</t>
+  </si>
+  <si>
+    <t>1014-70-6</t>
+  </si>
+  <si>
+    <t>3689-24-5</t>
+  </si>
+  <si>
+    <t>35400-43-2</t>
+  </si>
+  <si>
+    <t>1918-18-9</t>
+  </si>
+  <si>
+    <t>95-06-7</t>
+  </si>
+  <si>
+    <t>886-50-0</t>
+  </si>
+  <si>
+    <t>107-49-3</t>
+  </si>
+  <si>
+    <t>39765-80-5</t>
+  </si>
+  <si>
+    <t>78-32-0</t>
+  </si>
+  <si>
+    <t>327-98-0</t>
+  </si>
+  <si>
+    <t>41814-78-2</t>
+  </si>
+  <si>
+    <t>16605-91-7</t>
+  </si>
+  <si>
+    <t>92-86-4</t>
+  </si>
+  <si>
+    <t>626-15-3</t>
+  </si>
+  <si>
+    <t>29973-13-5</t>
+  </si>
+  <si>
+    <t>2179-25-1</t>
+  </si>
+  <si>
+    <t>959-98-8</t>
+  </si>
+  <si>
+    <t>60145-21-3</t>
+  </si>
+  <si>
+    <t>52663-69-1</t>
+  </si>
+  <si>
+    <t>35065-30-6</t>
+  </si>
+  <si>
+    <t>74472-42-7</t>
+  </si>
+  <si>
+    <t>35065-28-2</t>
+  </si>
+  <si>
+    <t>38380-07-3</t>
+  </si>
+  <si>
+    <t>32598-14-4</t>
+  </si>
+  <si>
+    <t>38380-01-7</t>
+  </si>
+  <si>
+    <t>52663-62-4</t>
+  </si>
+  <si>
+    <t>38444-90-5</t>
+  </si>
+  <si>
+    <t>41411-63-6</t>
+  </si>
+  <si>
+    <t>41464-40-8</t>
+  </si>
+  <si>
+    <t>35065-29-3</t>
+  </si>
+  <si>
+    <t>38380-08-4</t>
+  </si>
+  <si>
+    <t>37680-73-2</t>
+  </si>
+  <si>
+    <t>35693-99-3</t>
+  </si>
+  <si>
+    <t>33284-50-3</t>
+  </si>
+  <si>
+    <t>74472-37-0</t>
+  </si>
+  <si>
+    <t>197-70-6</t>
+  </si>
+  <si>
+    <t>7496-02-8</t>
+  </si>
+  <si>
+    <t>34883-43-7</t>
+  </si>
+  <si>
+    <t>7012-37-5</t>
+  </si>
+  <si>
+    <t>41464-39-5</t>
+  </si>
+  <si>
+    <t>33025-41-1</t>
+  </si>
+  <si>
+    <t>32598-11-1</t>
+  </si>
+  <si>
+    <t>32690-93-0</t>
+  </si>
+  <si>
+    <t>38380-02-8</t>
+  </si>
+  <si>
+    <t>52663-64-6</t>
+  </si>
+  <si>
+    <t>39635-31-9</t>
+  </si>
+  <si>
+    <t>72-56-0</t>
+  </si>
+  <si>
+    <t>2642-71-9</t>
+  </si>
+  <si>
+    <t>2050-68-2</t>
+  </si>
+  <si>
+    <t>51630-58-1</t>
+  </si>
+  <si>
+    <t>37680-65-2</t>
+  </si>
+  <si>
+    <t>32598-10-0</t>
+  </si>
+  <si>
+    <t>38380-03-9</t>
+  </si>
+  <si>
+    <t>51908-16-8</t>
+  </si>
+  <si>
+    <t>38380-04-0</t>
+  </si>
+  <si>
+    <t>52663-63-5</t>
+  </si>
+  <si>
+    <t>52663-70-4</t>
+  </si>
+  <si>
+    <t>35694-08-7</t>
+  </si>
+  <si>
+    <t>2052-07-5</t>
+  </si>
+  <si>
+    <t>41318-75-6</t>
+  </si>
+  <si>
+    <t>243982-82-3</t>
+  </si>
+  <si>
+    <t>16606-02-3</t>
+  </si>
+  <si>
+    <t>70362-45-7</t>
+  </si>
+  <si>
+    <t>41464-43-1</t>
+  </si>
+  <si>
+    <t>52663-61-3</t>
+  </si>
+  <si>
+    <t>52663-66-8</t>
+  </si>
+  <si>
+    <t>69782-90-7</t>
+  </si>
+  <si>
+    <t>52663-72-6</t>
+  </si>
+  <si>
+    <t>52663-67-9</t>
+  </si>
+  <si>
+    <t>2136-99-4</t>
+  </si>
+  <si>
+    <t>69806-40-2</t>
+  </si>
+  <si>
+    <t>4640-01-1</t>
+  </si>
+  <si>
+    <t>58580-14-6</t>
+  </si>
+  <si>
+    <t>112143-82-5</t>
+  </si>
+  <si>
+    <t>58580-13-5</t>
+  </si>
+  <si>
+    <t>174514-07-9</t>
+  </si>
+  <si>
+    <t>133408-50-1</t>
+  </si>
+  <si>
+    <t>6552-21-2</t>
+  </si>
+  <si>
+    <t>999007-03-3</t>
+  </si>
+  <si>
+    <t>140923-25-7</t>
+  </si>
+  <si>
+    <t>3988-03-2</t>
+  </si>
+  <si>
+    <t>142534-71-2</t>
+  </si>
+  <si>
+    <t>81405-85-8</t>
+  </si>
+  <si>
+    <t>120068-36-2</t>
+  </si>
+  <si>
+    <t>41483-43-6</t>
+  </si>
+  <si>
+    <t>130000-40-7</t>
+  </si>
+  <si>
+    <t>113096-99-4</t>
+  </si>
+  <si>
+    <t>143390-89-0</t>
+  </si>
+  <si>
+    <t>6132-17-8</t>
+  </si>
+  <si>
+    <t>104030-54-8</t>
+  </si>
+  <si>
+    <t>122453-73-0</t>
+  </si>
+  <si>
+    <t>180409-60-3</t>
+  </si>
+  <si>
+    <t>115852-48-7</t>
+  </si>
+  <si>
+    <t>3761-42-0</t>
+  </si>
+  <si>
+    <t>74070-46-5</t>
+  </si>
+  <si>
+    <t>14255-72-2</t>
+  </si>
+  <si>
+    <t>7082-99-7</t>
+  </si>
+  <si>
+    <t>59080-37-4</t>
+  </si>
+  <si>
+    <t>163520-33-0</t>
+  </si>
+  <si>
+    <t>58810-48-3</t>
+  </si>
+  <si>
+    <t>121-21-1</t>
+  </si>
+  <si>
+    <t>2132-70-9</t>
+  </si>
+  <si>
+    <t>63837-33-2</t>
+  </si>
+  <si>
+    <t>136191-64-5</t>
+  </si>
+  <si>
+    <t>66860-80-8</t>
+  </si>
+  <si>
+    <t>135590-91-9</t>
+  </si>
+  <si>
+    <t>74738-17-3</t>
+  </si>
+  <si>
+    <t>283594-90-1</t>
+  </si>
+  <si>
+    <t>31972-43-7</t>
+  </si>
+  <si>
+    <t>116255-48-2</t>
+  </si>
+  <si>
+    <t>31972-44-8</t>
+  </si>
+  <si>
+    <t>131086-42-5</t>
+  </si>
+  <si>
+    <t>149961-52-4</t>
+  </si>
+  <si>
+    <t>117-83-9</t>
+  </si>
+  <si>
+    <t>137641-05-5</t>
+  </si>
+  <si>
+    <t>99607-70-2</t>
+  </si>
+  <si>
+    <t>125116-23-6</t>
+  </si>
+  <si>
+    <t>120928-09-8</t>
+  </si>
+  <si>
+    <t>64249-01-0</t>
+  </si>
+  <si>
+    <t>103112-35-2</t>
+  </si>
+  <si>
+    <t>51186-88-0</t>
+  </si>
+  <si>
+    <t>154159-06-5</t>
+  </si>
+  <si>
+    <t>26046-85-5</t>
+  </si>
+  <si>
+    <t>84-62-8</t>
+  </si>
+  <si>
+    <t>299-45-6</t>
+  </si>
+  <si>
+    <t>96525-23-4</t>
+  </si>
+  <si>
+    <t>52570-16-8</t>
+  </si>
+  <si>
+    <t>3861-47-0</t>
+  </si>
+  <si>
+    <t>1420-06-0</t>
+  </si>
+  <si>
+    <t>135186-78-6</t>
+  </si>
+  <si>
+    <t>101007-06-1</t>
+  </si>
+  <si>
+    <t>77501-90-7</t>
+  </si>
+  <si>
+    <t>82560-54-1</t>
+  </si>
+  <si>
+    <t>89784-60-1</t>
+  </si>
+  <si>
+    <t>220899-03-6</t>
+  </si>
+  <si>
+    <t>3118-97-6</t>
+  </si>
+  <si>
+    <t>136426-54-5</t>
+  </si>
+  <si>
+    <t>999008-03-6</t>
+  </si>
+  <si>
+    <t>125306-83-4</t>
+  </si>
+  <si>
+    <t>61576-99-6</t>
+  </si>
+  <si>
+    <t>111872-58-3</t>
+  </si>
+  <si>
+    <t>121227-99-4</t>
+  </si>
+  <si>
+    <t>57960-19-7</t>
+  </si>
+  <si>
+    <t>105024-66-6</t>
+  </si>
+  <si>
+    <t>105779-78-0</t>
+  </si>
+  <si>
+    <t>84-76-4</t>
+  </si>
+  <si>
+    <t>129558-76-5</t>
+  </si>
+  <si>
+    <t>142891-20-1</t>
+  </si>
+  <si>
+    <t>98-53-3</t>
+  </si>
+  <si>
+    <t>29878-31-7</t>
+  </si>
+  <si>
+    <t>125225-28-7</t>
+  </si>
+  <si>
+    <t>23576-24-1</t>
+  </si>
+  <si>
+    <t>54406-48-3</t>
+  </si>
+  <si>
+    <t>82-66-6</t>
+  </si>
+  <si>
+    <t>71561-11-0</t>
+  </si>
+  <si>
+    <t>3766-81-2</t>
+  </si>
+  <si>
+    <t>1746-81-2</t>
+  </si>
+  <si>
+    <t>4658-28-0</t>
+  </si>
+  <si>
+    <t>80-06-8</t>
+  </si>
+  <si>
+    <t>39515-40-7</t>
+  </si>
+  <si>
+    <t>1229-55-6</t>
+  </si>
+  <si>
+    <t>139920-32-4</t>
+  </si>
+  <si>
+    <t>229977-93-9</t>
+  </si>
+  <si>
+    <t>121776-33-8</t>
+  </si>
+  <si>
+    <t>91465-08-6</t>
+  </si>
+  <si>
+    <t>86598-92-7</t>
+  </si>
+  <si>
+    <t>199338-48-2</t>
+  </si>
+  <si>
+    <t>158474-72-7</t>
+  </si>
+  <si>
+    <t>4466-14-2</t>
+  </si>
+  <si>
+    <t>25402-06-6</t>
+  </si>
+  <si>
+    <t>121-20-0</t>
+  </si>
+  <si>
+    <t>1172-63-0</t>
+  </si>
+  <si>
+    <t>121-29-9</t>
+  </si>
+  <si>
+    <t>28044-83-9</t>
+  </si>
+  <si>
+    <t>71363-52-5</t>
+  </si>
+  <si>
+    <t>3067-13-8</t>
+  </si>
+  <si>
+    <t>65199-11-3</t>
+  </si>
+  <si>
+    <t>999051-03-5</t>
+  </si>
+  <si>
+    <t>999043-03-7</t>
+  </si>
+  <si>
+    <t>999040-03-8</t>
+  </si>
+  <si>
+    <t>65733-16-6</t>
+  </si>
+  <si>
+    <t>999049-03-5</t>
+  </si>
+  <si>
+    <t>999048-03-2</t>
+  </si>
+  <si>
+    <t>999037-03-5</t>
+  </si>
+  <si>
+    <t>999038-03-8</t>
+  </si>
+  <si>
+    <t>999050-03-2</t>
+  </si>
+  <si>
+    <t>999039-03-1</t>
+  </si>
+  <si>
+    <t>999034-03-6</t>
+  </si>
+  <si>
+    <t>999027-03-1</t>
+  </si>
+  <si>
+    <t>61949-76-6</t>
+  </si>
+  <si>
+    <t>84-54-8</t>
+  </si>
+  <si>
+    <t>999028-03-4</t>
+  </si>
+  <si>
+    <t>999029-03-7</t>
+  </si>
+  <si>
+    <t>999030-03-4</t>
+  </si>
+  <si>
+    <t>104-12-1</t>
+  </si>
+  <si>
+    <t>367-21-5</t>
+  </si>
+  <si>
+    <t>99-88-7</t>
+  </si>
+  <si>
+    <t>99-49-0</t>
+  </si>
+  <si>
+    <t>24549-06-2</t>
+  </si>
+  <si>
+    <t>3964-56-5</t>
+  </si>
+  <si>
+    <t>591-27-5</t>
+  </si>
+  <si>
+    <t>95-69-2</t>
+  </si>
+  <si>
+    <t>106-40-1</t>
+  </si>
+  <si>
+    <t>1563-38-8</t>
+  </si>
+  <si>
+    <t>102-36-3</t>
+  </si>
+  <si>
+    <t>87-40-1</t>
+  </si>
+  <si>
+    <t>50375-10-5</t>
+  </si>
+  <si>
+    <t>626-39-1</t>
+  </si>
+  <si>
+    <t>5345-54-0</t>
+  </si>
+  <si>
+    <t>85-41-6</t>
+  </si>
+  <si>
+    <t>27813-21-4</t>
+  </si>
+  <si>
+    <t>33704-61-9</t>
+  </si>
+  <si>
+    <t>636-30-6</t>
+  </si>
+  <si>
+    <t>98-10-2</t>
+  </si>
+  <si>
+    <t>2655-14-3</t>
+  </si>
+  <si>
+    <t>136-85-6</t>
+  </si>
+  <si>
+    <t>55440-55-6</t>
+  </si>
+  <si>
+    <t>2600-69-3</t>
+  </si>
+  <si>
+    <t>607-99-8</t>
+  </si>
+  <si>
+    <t>4710-17-2</t>
+  </si>
+  <si>
+    <t>16954-69-1</t>
+  </si>
+  <si>
+    <t>6190-65-4</t>
+  </si>
+  <si>
+    <t>879-39-0</t>
+  </si>
+  <si>
+    <t>3811-49-2</t>
+  </si>
+  <si>
+    <t>2008-58-4</t>
+  </si>
+  <si>
+    <t>30125-63-4</t>
+  </si>
+  <si>
+    <t>95465-99-9</t>
+  </si>
+  <si>
+    <t>3740-92-9</t>
+  </si>
+  <si>
+    <t>13171-00-1</t>
+  </si>
+  <si>
+    <t>41205-21-4</t>
+  </si>
+  <si>
+    <t>37019-18-4</t>
+  </si>
+  <si>
+    <t>66840-71-9</t>
+  </si>
+  <si>
+    <t>4228-88-0</t>
+  </si>
+  <si>
+    <t>15323-35-0</t>
+  </si>
+  <si>
+    <t>120-51-4</t>
+  </si>
+  <si>
+    <t>8065-36-9</t>
+  </si>
+  <si>
+    <t>3734-48-3</t>
+  </si>
+  <si>
+    <t>771-51-7</t>
+  </si>
+  <si>
+    <t>502-72-7</t>
+  </si>
+  <si>
+    <t>4147-57-3</t>
+  </si>
+  <si>
+    <t>6108-10-7</t>
+  </si>
+  <si>
+    <t>106-02-5</t>
+  </si>
+  <si>
+    <t>495-48-7</t>
+  </si>
+  <si>
+    <t>83-66-9</t>
+  </si>
+  <si>
+    <t>1929-87-9</t>
+  </si>
+  <si>
+    <t>34849-42-8</t>
+  </si>
+  <si>
+    <t>98730-04-2</t>
+  </si>
+  <si>
+    <t>68140-48-7</t>
+  </si>
+  <si>
+    <t>101-76-8</t>
+  </si>
+  <si>
+    <t>3983-45-7</t>
+  </si>
+  <si>
+    <t>175217-20-6</t>
+  </si>
+  <si>
+    <t>81-15-2</t>
+  </si>
+  <si>
+    <t>1506-02-1</t>
+  </si>
+  <si>
+    <t>41096-46-2</t>
+  </si>
+  <si>
+    <t>2255-17-6</t>
+  </si>
+  <si>
+    <t>26244-33-7</t>
+  </si>
+  <si>
+    <t>56425-91-3</t>
+  </si>
+  <si>
+    <t>116-66-5</t>
+  </si>
+  <si>
+    <t>149508-90-7</t>
+  </si>
+  <si>
+    <t>61676-87-7</t>
+  </si>
+  <si>
+    <t>999003-03-1</t>
+  </si>
+  <si>
+    <t>118712-89-3</t>
+  </si>
+  <si>
+    <t>86763-47-5</t>
+  </si>
+  <si>
+    <t>130336-40-2</t>
+  </si>
+  <si>
+    <t>127-90-2</t>
+  </si>
+  <si>
+    <t>205650-65-3</t>
+  </si>
+  <si>
+    <t>52888-80-9</t>
+  </si>
+  <si>
+    <t>85-29-0</t>
+  </si>
+  <si>
+    <t>67306-00-7</t>
+  </si>
+  <si>
+    <t>34622-58-7</t>
+  </si>
+  <si>
+    <t>145-39-1</t>
+  </si>
+  <si>
+    <t>1825-19-0</t>
+  </si>
+  <si>
+    <t>39811-17-1</t>
+  </si>
+  <si>
+    <t>76608-88-3</t>
+  </si>
+  <si>
+    <t>2588-05-8</t>
+  </si>
+  <si>
+    <t>56070-15-6</t>
+  </si>
+  <si>
+    <t>14214-32-5</t>
+  </si>
+  <si>
+    <t>2588-04-7</t>
+  </si>
+  <si>
+    <t>63-74-1</t>
+  </si>
+  <si>
+    <t>81-14-1</t>
+  </si>
+  <si>
+    <t>40341-04-6</t>
+  </si>
+  <si>
+    <t>24353-61-5</t>
+  </si>
+  <si>
+    <t>31120-85-1</t>
+  </si>
+  <si>
+    <t>30043-49-3</t>
+  </si>
+  <si>
+    <t>2550-75-6</t>
+  </si>
+  <si>
+    <t>56070-16-7</t>
+  </si>
+  <si>
+    <t>18708-87-7</t>
+  </si>
+  <si>
+    <t>120067-83-6</t>
+  </si>
+  <si>
+    <t>61432-55-1</t>
+  </si>
+  <si>
+    <t>28159-98-0</t>
+  </si>
+  <si>
+    <t>18708-86-6</t>
+  </si>
+  <si>
+    <t>19480-43-4</t>
+  </si>
+  <si>
+    <t>999006-03-0</t>
+  </si>
+  <si>
+    <t>113614-08-7</t>
+  </si>
+  <si>
+    <t>1022-22-6</t>
+  </si>
+  <si>
+    <t>7292-16-2</t>
+  </si>
+  <si>
+    <t>62850-32-2</t>
+  </si>
+  <si>
+    <t>70193-21-4</t>
+  </si>
+  <si>
+    <t>80-33-1</t>
+  </si>
+  <si>
+    <t>18181-70-9</t>
+  </si>
+  <si>
+    <t>36335-67-8</t>
+  </si>
+  <si>
+    <t>38727-55-8</t>
+  </si>
+  <si>
+    <t>15457-05-3</t>
+  </si>
+  <si>
+    <t>50512-35-1</t>
+  </si>
+  <si>
+    <t>83657-17-4</t>
+  </si>
+  <si>
+    <t>51218-49-6</t>
+  </si>
+  <si>
+    <t>37893-02-0</t>
+  </si>
+  <si>
+    <t>75736-33-3</t>
+  </si>
+  <si>
+    <t>41394-05-2</t>
+  </si>
+  <si>
+    <t>60207-31-0</t>
+  </si>
+  <si>
+    <t>52756-25-9</t>
+  </si>
+  <si>
+    <t>841-06-5</t>
+  </si>
+  <si>
+    <t>64470-88-8</t>
+  </si>
+  <si>
+    <t>136-25-4</t>
+  </si>
+  <si>
+    <t>18854-01-8</t>
+  </si>
+  <si>
+    <t>12771-68-5</t>
+  </si>
+  <si>
+    <t>485-31-4</t>
+  </si>
+  <si>
+    <t>50594-67-7</t>
+  </si>
+  <si>
+    <t>3761-41-9</t>
+  </si>
+  <si>
+    <t>69581-33-5</t>
+  </si>
+  <si>
+    <t>2635-10-1</t>
+  </si>
+  <si>
+    <t>60207-93-4</t>
+  </si>
+  <si>
+    <t>52756-22-6</t>
+  </si>
+  <si>
+    <t>77732-09-3</t>
+  </si>
+  <si>
+    <t>1031-47-6</t>
+  </si>
+  <si>
+    <t>2227-13-6</t>
+  </si>
+  <si>
+    <t>60238-56-4</t>
+  </si>
+  <si>
+    <t>14255-88-0</t>
+  </si>
+  <si>
+    <t>55814-41-0</t>
+  </si>
+  <si>
+    <t>24017-47-8</t>
+  </si>
+  <si>
+    <t>1836-77-7</t>
+  </si>
+  <si>
+    <t>51207-31-9</t>
+  </si>
+  <si>
+    <t>71626-11-4</t>
+  </si>
+  <si>
+    <t>17109-49-8</t>
+  </si>
+  <si>
+    <t>13067-93-1</t>
+  </si>
+  <si>
+    <t>1689-99-2</t>
+  </si>
+  <si>
+    <t>2164-08-1</t>
+  </si>
+  <si>
+    <t>3478-94-2</t>
+  </si>
+  <si>
+    <t>63284-71-9</t>
+  </si>
+  <si>
+    <t>96491-05-3</t>
+  </si>
+  <si>
+    <t>83164-33-4</t>
+  </si>
+  <si>
+    <t>5259-88-1</t>
+  </si>
+  <si>
+    <t>28434-01-7</t>
+  </si>
+  <si>
+    <t>106325-08-0</t>
+  </si>
+  <si>
+    <t>31251-03-3</t>
+  </si>
+  <si>
+    <t>4726-14-1</t>
+  </si>
+  <si>
+    <t>88678-67-5</t>
+  </si>
+  <si>
+    <t>22212-55-1</t>
+  </si>
+  <si>
+    <t>97-23-4</t>
+  </si>
+  <si>
+    <t>87-82-1</t>
+  </si>
+  <si>
+    <t>119-12-0</t>
+  </si>
+  <si>
+    <t>25006-32-0</t>
+  </si>
+  <si>
+    <t>29185-21-5</t>
+  </si>
+  <si>
+    <t>78-57-9</t>
+  </si>
+  <si>
+    <t>18181-80-1</t>
+  </si>
+  <si>
+    <t>79127-80-3</t>
+  </si>
+  <si>
+    <t>24151-93-7</t>
+  </si>
+  <si>
+    <t>2275-14-1</t>
+  </si>
+  <si>
+    <t>64257-84-7</t>
+  </si>
+  <si>
+    <t>42576-02-3</t>
+  </si>
+  <si>
+    <t>84-61-7</t>
+  </si>
+  <si>
+    <t>999053-03-1</t>
+  </si>
+  <si>
+    <t>116-29-0</t>
+  </si>
+  <si>
+    <t>26002-80-2</t>
+  </si>
+  <si>
+    <t>65907-30-4</t>
+  </si>
+  <si>
+    <t>73250-68-7</t>
+  </si>
+  <si>
+    <t>68085-85-8</t>
+  </si>
+  <si>
+    <t>13457-18-6</t>
+  </si>
+  <si>
+    <t>10311-84-9</t>
+  </si>
+  <si>
+    <t>55179-31-2</t>
+  </si>
+  <si>
+    <t>78-34-2</t>
+  </si>
+  <si>
+    <t>119611-00-6</t>
+  </si>
+  <si>
+    <t>70124-77-5</t>
+  </si>
+  <si>
+    <t>491-80-5</t>
+  </si>
+  <si>
+    <t>362-05-0</t>
+  </si>
+  <si>
+    <t>55512-33-9</t>
+  </si>
+  <si>
+    <t>102851-06-9</t>
+  </si>
+  <si>
+    <t>3383-96-8</t>
+  </si>
+  <si>
+    <t>98-16-8</t>
+  </si>
+  <si>
+    <t>103-41-3</t>
+  </si>
+  <si>
+    <t>122-40-7</t>
+  </si>
+  <si>
+    <t>79-77-6</t>
+  </si>
+  <si>
+    <t>127-41-3</t>
+  </si>
+  <si>
+    <t>106-24-1</t>
+  </si>
+  <si>
+    <t>101-85-9</t>
+  </si>
+  <si>
+    <t>118-58-1</t>
+  </si>
+  <si>
+    <t>107-75-5</t>
+  </si>
+  <si>
+    <t>104-55-2</t>
+  </si>
+  <si>
+    <t>104-54-1</t>
+  </si>
+  <si>
+    <t>80-54-6</t>
+  </si>
+  <si>
+    <t>31906-04-4</t>
+  </si>
+  <si>
+    <t>111-12-6</t>
+  </si>
+  <si>
+    <t>135-88-6</t>
+  </si>
+  <si>
+    <t>90-30-2</t>
+  </si>
+  <si>
+    <t>2440-22-4</t>
+  </si>
+  <si>
+    <t>128-37-0</t>
+  </si>
+  <si>
+    <t>97-02-9</t>
+  </si>
+  <si>
+    <t>95-51-2</t>
+  </si>
+  <si>
+    <t>101-77-9</t>
+  </si>
+  <si>
+    <t>121-87-9</t>
+  </si>
+  <si>
+    <t>89-63-4</t>
+  </si>
+  <si>
+    <t>3531-19-9</t>
+  </si>
+  <si>
+    <t>827-94-1</t>
+  </si>
+  <si>
+    <t>1817-73-8</t>
+  </si>
+  <si>
+    <t>843-55-0</t>
+  </si>
+  <si>
+    <t>2081-08-5</t>
+  </si>
+  <si>
+    <t>77-40-7</t>
+  </si>
+  <si>
+    <t>1478-61-1</t>
+  </si>
+  <si>
+    <t>92-69-3</t>
+  </si>
+  <si>
+    <t>95-56-7</t>
+  </si>
+  <si>
+    <t>92-04-6</t>
+  </si>
+  <si>
+    <t>609-19-8</t>
+  </si>
+  <si>
+    <t>108-43-0</t>
+  </si>
+  <si>
+    <t>554-84-7</t>
+  </si>
+  <si>
+    <t>580-51-8</t>
+  </si>
+  <si>
+    <t>1570-64-5</t>
+  </si>
+  <si>
+    <t>622-62-8</t>
+  </si>
+  <si>
+    <t>1806-26-4</t>
+  </si>
+  <si>
+    <t>554-00-7</t>
+  </si>
+  <si>
+    <t>95-82-9</t>
+  </si>
+  <si>
+    <t>87-59-2</t>
+  </si>
+  <si>
+    <t>95-78-3</t>
+  </si>
+  <si>
+    <t>579-66-8</t>
+  </si>
+  <si>
+    <t>24544-04-5</t>
+  </si>
+  <si>
+    <t>578-54-1</t>
+  </si>
+  <si>
+    <t>643-28-7</t>
+  </si>
+  <si>
+    <t>697-82-5</t>
+  </si>
+  <si>
+    <t>583-78-8</t>
+  </si>
+  <si>
+    <t>489-01-0</t>
+  </si>
+  <si>
+    <t>91-10-1</t>
+  </si>
+  <si>
+    <t>87-26-3</t>
+  </si>
+  <si>
+    <t>94-86-0</t>
+  </si>
+  <si>
+    <t>90-00-6</t>
+  </si>
+  <si>
+    <t>644-35-9</t>
+  </si>
+  <si>
+    <t>99-07-0</t>
+  </si>
+  <si>
+    <t>108-68-9</t>
+  </si>
+  <si>
+    <t>620-17-7</t>
+  </si>
+  <si>
+    <t>150-19-6</t>
+  </si>
+  <si>
+    <t>585-34-2</t>
+  </si>
+  <si>
+    <t>5930-28-9</t>
+  </si>
+  <si>
+    <t>1638-22-8</t>
+  </si>
+  <si>
+    <t>99-89-8</t>
+  </si>
+  <si>
+    <t>634-93-5</t>
+  </si>
+  <si>
+    <t>95-64-7</t>
+  </si>
+  <si>
+    <t>108-69-0</t>
+  </si>
+  <si>
+    <t>108-44-1</t>
+  </si>
+  <si>
+    <t>106-49-0</t>
+  </si>
+  <si>
+    <t>133-53-9</t>
+  </si>
+  <si>
+    <t>526-75-0</t>
+  </si>
+  <si>
+    <t>609-23-4</t>
+  </si>
+  <si>
+    <t>2772-45-4</t>
+  </si>
+  <si>
+    <t>120-95-6</t>
+  </si>
+  <si>
+    <t>96-76-4</t>
+  </si>
+  <si>
+    <t>88-27-7</t>
+  </si>
+  <si>
+    <t>4130-42-1</t>
+  </si>
+  <si>
+    <t>128-39-2</t>
+  </si>
+  <si>
+    <t>89-72-5</t>
+  </si>
+  <si>
+    <t>95-85-2</t>
+  </si>
+  <si>
+    <t>95-84-1</t>
+  </si>
+  <si>
+    <t>95-55-6</t>
+  </si>
+  <si>
+    <t>615-74-7</t>
+  </si>
+  <si>
+    <t>94-71-3</t>
+  </si>
+  <si>
+    <t>88-69-7</t>
+  </si>
+  <si>
+    <t>93-51-6</t>
+  </si>
+  <si>
+    <t>90-05-1</t>
+  </si>
+  <si>
+    <t>95-65-8</t>
+  </si>
+  <si>
+    <t>91-68-9</t>
+  </si>
+  <si>
+    <t>123-30-8</t>
+  </si>
+  <si>
+    <t>101-53-1</t>
+  </si>
+  <si>
+    <t>88-04-0</t>
+  </si>
+  <si>
+    <t>599-64-4</t>
+  </si>
+  <si>
+    <t>123-07-9</t>
+  </si>
+  <si>
+    <t>150-76-5</t>
+  </si>
+  <si>
+    <t>119-33-5</t>
+  </si>
+  <si>
+    <t>98-54-4</t>
+  </si>
+  <si>
+    <t>95-32-9</t>
+  </si>
+  <si>
+    <t>95-33-0</t>
+  </si>
+  <si>
+    <t>102-77-2</t>
+  </si>
+  <si>
+    <t>95-16-9</t>
+  </si>
+  <si>
+    <t>149-30-4</t>
+  </si>
+  <si>
+    <t>6265-91-4</t>
+  </si>
+  <si>
+    <t>4074-77-5</t>
+  </si>
+  <si>
+    <t>4602-84-0</t>
+  </si>
+  <si>
+    <t>147217-75-2</t>
+  </si>
+  <si>
+    <t>189084-61-5</t>
+  </si>
+  <si>
+    <t>189084-63-7</t>
+  </si>
+  <si>
+    <t>182346-21-0</t>
+  </si>
+  <si>
+    <t>189084-64-8</t>
+  </si>
+  <si>
+    <t>35854-94-5</t>
+  </si>
+  <si>
+    <t>70424-68-9</t>
+  </si>
+  <si>
+    <t>38380-05-1</t>
+  </si>
+  <si>
+    <t>74472-34-7</t>
+  </si>
+  <si>
+    <t>74472-44-9</t>
+  </si>
+  <si>
+    <t>2051-60-7</t>
+  </si>
+  <si>
+    <t>2051-61-8</t>
+  </si>
+  <si>
+    <t>2051-62-9</t>
+  </si>
+  <si>
+    <t>13029-08-8</t>
+  </si>
+  <si>
+    <t>25569-80-6</t>
+  </si>
+  <si>
+    <t>34883-39-1</t>
+  </si>
+  <si>
+    <t>33146-45-1</t>
+  </si>
+  <si>
+    <t>2050-67-1</t>
+  </si>
+  <si>
+    <t>2974-92-7</t>
+  </si>
+  <si>
+    <t>2974-90-5</t>
+  </si>
+  <si>
+    <t>34883-41-5</t>
+  </si>
+  <si>
+    <t>38444-78-9</t>
+  </si>
+  <si>
+    <t>37680-66-3</t>
+  </si>
+  <si>
+    <t>38444-73-4</t>
+  </si>
+  <si>
+    <t>38444-84-7</t>
+  </si>
+  <si>
+    <t>55702-46-0</t>
+  </si>
+  <si>
+    <t>38444-85-8</t>
+  </si>
+  <si>
+    <t>55720-44-0</t>
+  </si>
+  <si>
+    <t>55702-45-9</t>
+  </si>
+  <si>
+    <t>55712-37-3</t>
+  </si>
+  <si>
+    <t>38444-81-4</t>
+  </si>
+  <si>
+    <t>38444-76-7</t>
+  </si>
+  <si>
+    <t>15862-07-4</t>
+  </si>
+  <si>
+    <t>35693-92-6</t>
+  </si>
+  <si>
+    <t>38444-77-8</t>
+  </si>
+  <si>
+    <t>38444-86-9</t>
+  </si>
+  <si>
+    <t>37680-68-5</t>
+  </si>
+  <si>
+    <t>37680-69-6</t>
+  </si>
+  <si>
+    <t>38444-87-0</t>
+  </si>
+  <si>
+    <t>53555-66-1</t>
+  </si>
+  <si>
+    <t>38444-88-1</t>
+  </si>
+  <si>
+    <t>38444-93-8</t>
+  </si>
+  <si>
+    <t>52663-59-9</t>
+  </si>
+  <si>
+    <t>36559-22-5</t>
+  </si>
+  <si>
+    <t>70362-46-8</t>
+  </si>
+  <si>
+    <t>41464-47-5</t>
+  </si>
+  <si>
+    <t>2437-79-8</t>
+  </si>
+  <si>
+    <t>70362-47-9</t>
+  </si>
+  <si>
+    <t>62796-65-0</t>
+  </si>
+  <si>
+    <t>68194-04-7</t>
+  </si>
+  <si>
+    <t>41464-41-9</t>
+  </si>
+  <si>
+    <t>15968-05-5</t>
+  </si>
+  <si>
+    <t>74338-24-2</t>
+  </si>
+  <si>
+    <t>70424-67-8</t>
+  </si>
+  <si>
+    <t>41464-49-7</t>
+  </si>
+  <si>
+    <t>74472-33-6</t>
+  </si>
+  <si>
+    <t>33284-53-6</t>
+  </si>
+  <si>
+    <t>54230-22-7</t>
+  </si>
+  <si>
+    <t>52663-58-8</t>
+  </si>
+  <si>
+    <t>33284-54-7</t>
+  </si>
+  <si>
+    <t>73575-53-8</t>
+  </si>
+  <si>
+    <t>73575-52-7</t>
+  </si>
+  <si>
+    <t>60233-24-1</t>
+  </si>
+  <si>
+    <t>41464-46-4</t>
+  </si>
+  <si>
+    <t>41464-42-0</t>
+  </si>
+  <si>
+    <t>74338-23-1</t>
+  </si>
+  <si>
+    <t>32598-12-2</t>
+  </si>
+  <si>
+    <t>70362-48-0</t>
+  </si>
+  <si>
+    <t>70362-49-1</t>
+  </si>
+  <si>
+    <t>41464-48-6</t>
+  </si>
+  <si>
+    <t>33284-52-5</t>
+  </si>
+  <si>
+    <t>70362-50-4</t>
+  </si>
+  <si>
+    <t>60145-20-2</t>
+  </si>
+  <si>
+    <t>52663-60-2</t>
+  </si>
+  <si>
+    <t>65510-45-4</t>
+  </si>
+  <si>
+    <t>55312-69-1</t>
+  </si>
+  <si>
+    <t>55215-17-3</t>
+  </si>
+  <si>
+    <t>73575-57-2</t>
+  </si>
+  <si>
+    <t>60712-44-9</t>
+  </si>
+  <si>
+    <t>2539-17-5</t>
+  </si>
+  <si>
+    <t>19463-48-0</t>
+  </si>
+  <si>
+    <t>18268-76-3</t>
+  </si>
+  <si>
+    <t>18268-69-4</t>
+  </si>
+  <si>
+    <t>76341-69-0</t>
+  </si>
+  <si>
+    <t>76330-06-8</t>
+  </si>
+  <si>
+    <t>2539-26-6</t>
+  </si>
+  <si>
+    <t>2138-22-9</t>
+  </si>
+  <si>
+    <t>3978-67-4</t>
+  </si>
+  <si>
+    <t>14324-55-1</t>
+  </si>
+  <si>
+    <t>13927-77-0</t>
+  </si>
+  <si>
+    <t>51452-87-0</t>
+  </si>
+  <si>
+    <t>147217-72-9</t>
+  </si>
+  <si>
+    <t>337513-66-3</t>
+  </si>
+  <si>
+    <t>147217-73-0</t>
+  </si>
+  <si>
+    <t>337513-67-4</t>
+  </si>
+  <si>
+    <t>337513-75-4</t>
+  </si>
+  <si>
+    <t>337513-53-8</t>
+  </si>
+  <si>
+    <t>65075-08-3</t>
+  </si>
+  <si>
+    <t>446254-23-5</t>
+  </si>
+  <si>
+    <t>189084-57-9</t>
+  </si>
+  <si>
+    <t>446254-33-7</t>
+  </si>
+  <si>
+    <t>327185-09-1</t>
+  </si>
+  <si>
+    <t>446254-55-3</t>
+  </si>
+  <si>
+    <t>446254-56-4</t>
+  </si>
+  <si>
+    <t>446254-67-7</t>
+  </si>
+  <si>
+    <t>446254-71-3</t>
+  </si>
+  <si>
+    <t>446254-78-0</t>
+  </si>
+  <si>
+    <t>446254-86-0</t>
+  </si>
+  <si>
+    <t>182677-28-7</t>
+  </si>
+  <si>
+    <t>446254-98-4</t>
+  </si>
+  <si>
+    <t>446255-00-1</t>
+  </si>
+  <si>
+    <t>446255-11-4</t>
+  </si>
+  <si>
+    <t>405237-86-7</t>
+  </si>
+  <si>
+    <t>446255-50-1</t>
+  </si>
+  <si>
+    <t>39227-53-7</t>
+  </si>
+  <si>
+    <t>39227-54-8</t>
+  </si>
+  <si>
+    <t>54536-18-4</t>
+  </si>
+  <si>
+    <t>29446-15-9</t>
+  </si>
+  <si>
+    <t>38964-22-6</t>
+  </si>
+  <si>
+    <t>35822-46-9</t>
+  </si>
+  <si>
+    <t>58200-70-7</t>
+  </si>
+  <si>
+    <t>58200-66-1</t>
+  </si>
+  <si>
+    <t>39227-28-6</t>
+  </si>
+  <si>
+    <t>19408-74-3</t>
+  </si>
+  <si>
+    <t>3268-87-9</t>
+  </si>
+  <si>
+    <t>39227-61-7</t>
+  </si>
+  <si>
+    <t>40321-76-4</t>
+  </si>
+  <si>
+    <t>54536-17-3</t>
+  </si>
+  <si>
+    <t>39227-58-2</t>
+  </si>
+  <si>
+    <t>82306-65-8</t>
+  </si>
+  <si>
+    <t>33857-28-2</t>
+  </si>
+  <si>
+    <t>30746-58-8</t>
+  </si>
+  <si>
+    <t>34816-53-0</t>
+  </si>
+  <si>
+    <t>50585-46-1</t>
+  </si>
+  <si>
+    <t>33423-92-6</t>
+  </si>
+  <si>
+    <t>116889-69-1</t>
+  </si>
+  <si>
+    <t>116889-70-4</t>
+  </si>
+  <si>
+    <t>67323-56-2</t>
+  </si>
+  <si>
+    <t>51230-49-0</t>
+  </si>
+  <si>
+    <t>74992-96-4</t>
+  </si>
+  <si>
+    <t>5409-83-6</t>
+  </si>
+  <si>
+    <t>38998-75-3</t>
+  </si>
+  <si>
+    <t>55684-94-1</t>
+  </si>
+  <si>
+    <t>57117-41-6</t>
+  </si>
+  <si>
+    <t>24478-72-6</t>
+  </si>
+  <si>
+    <t>30402-14-3</t>
+  </si>
+  <si>
+    <t>54589-71-8</t>
+  </si>
+  <si>
+    <t>2303-23-3</t>
+  </si>
+  <si>
+    <t>39145-48-7</t>
+  </si>
+  <si>
+    <t>50585-39-2</t>
+  </si>
+  <si>
+    <t>57653-85-7</t>
+  </si>
+  <si>
+    <t>262-12-4</t>
+  </si>
+  <si>
+    <t>54536-19-5</t>
+  </si>
+  <si>
+    <t>38178-38-0</t>
+  </si>
+  <si>
+    <t>33857-26-0</t>
+  </si>
+  <si>
+    <t>262-16-8</t>
+  </si>
+  <si>
+    <t>39227-62-8</t>
+  </si>
+  <si>
+    <t>71925-18-3</t>
+  </si>
+  <si>
+    <t>58802-08-7</t>
+  </si>
+  <si>
+    <t>71998-76-0</t>
+  </si>
+  <si>
+    <t>50585-41-6</t>
+  </si>
+  <si>
+    <t>41903-57-5</t>
+  </si>
+  <si>
+    <t>39001-02-0</t>
+  </si>
+  <si>
+    <t>1836-74-4</t>
+  </si>
+  <si>
+    <t>82239-20-1</t>
+  </si>
+  <si>
+    <t>2671-93-4</t>
+  </si>
+  <si>
+    <t>2093-28-9</t>
+  </si>
+  <si>
+    <t>22532-80-5</t>
+  </si>
+  <si>
+    <t>21105-77-1</t>
+  </si>
+  <si>
+    <t>620-88-2</t>
+  </si>
+  <si>
+    <t>142022-61-5</t>
+  </si>
+  <si>
+    <t>142022-59-1</t>
+  </si>
+  <si>
+    <t>142022-58-0</t>
+  </si>
+  <si>
+    <t>22532-68-9</t>
+  </si>
+  <si>
+    <t>20566-35-2</t>
+  </si>
+  <si>
+    <t>105-95-3</t>
+  </si>
+  <si>
+    <t>78-70-6</t>
+  </si>
+  <si>
+    <t>106-22-9</t>
+  </si>
+  <si>
+    <t>105-13-5</t>
+  </si>
+  <si>
+    <t>97-54-1</t>
+  </si>
+  <si>
+    <t>999042-03-4</t>
+  </si>
+  <si>
+    <t>999041-03-1</t>
+  </si>
+  <si>
+    <t>999044-03-0</t>
+  </si>
+  <si>
+    <t>999036-03-2</t>
+  </si>
+  <si>
+    <t>999016-03-4</t>
+  </si>
+  <si>
+    <t>999017-03-7</t>
+  </si>
+  <si>
+    <t>999026-03-8</t>
+  </si>
+  <si>
+    <t>999018-03-0</t>
+  </si>
+  <si>
+    <t>999023-03-9</t>
+  </si>
+  <si>
+    <t>999022-03-6</t>
+  </si>
+  <si>
+    <t>999020-03-0</t>
+  </si>
+  <si>
+    <t>999009-03-9</t>
+  </si>
+  <si>
+    <t>999019-03-3</t>
+  </si>
+  <si>
+    <t>999024-03-2</t>
+  </si>
+  <si>
+    <t>999013-03-5</t>
+  </si>
+  <si>
+    <t>68194-07-0</t>
+  </si>
+  <si>
+    <t>68194-05-8</t>
+  </si>
+  <si>
+    <t>73575-56-1</t>
+  </si>
+  <si>
+    <t>73575-55-0</t>
+  </si>
+  <si>
+    <t>73575-54-9</t>
+  </si>
+  <si>
+    <t>41464-51-1</t>
+  </si>
+  <si>
+    <t>68194-06-9</t>
+  </si>
+  <si>
+    <t>56558-16-8</t>
+  </si>
+  <si>
+    <t>70424-69-0</t>
+  </si>
+  <si>
+    <t>70362-41-3</t>
+  </si>
+  <si>
+    <t>74472-35-8</t>
+  </si>
+  <si>
+    <t>39635-32-0</t>
+  </si>
+  <si>
+    <t>74472-36-9</t>
+  </si>
+  <si>
+    <t>68194-10-5</t>
+  </si>
+  <si>
+    <t>74472-38-1</t>
+  </si>
+  <si>
+    <t>18259-05-7</t>
+  </si>
+  <si>
+    <t>68194-11-6</t>
+  </si>
+  <si>
+    <t>56558-17-9</t>
+  </si>
+  <si>
+    <t>68194-12-7</t>
+  </si>
+  <si>
+    <t>56558-18-0</t>
+  </si>
+  <si>
+    <t>76842-07-4</t>
+  </si>
+  <si>
+    <t>65510-44-3</t>
+  </si>
+  <si>
+    <t>70424-70-3</t>
+  </si>
+  <si>
+    <t>74472-39-2</t>
+  </si>
+  <si>
+    <t>39635-33-1</t>
+  </si>
+  <si>
+    <t>55215-18-4</t>
+  </si>
+  <si>
+    <t>61798-70-7</t>
+  </si>
+  <si>
+    <t>35694-04-3</t>
+  </si>
+  <si>
+    <t>52704-70-8</t>
+  </si>
+  <si>
+    <t>52744-13-5</t>
+  </si>
+  <si>
+    <t>35694-06-5</t>
+  </si>
+  <si>
+    <t>56030-56-9</t>
+  </si>
+  <si>
+    <t>59291-64-4</t>
+  </si>
+  <si>
+    <t>52712-04-6</t>
+  </si>
+  <si>
+    <t>41411-61-4</t>
+  </si>
+  <si>
+    <t>68194-15-0</t>
+  </si>
+  <si>
+    <t>68194-14-9</t>
+  </si>
+  <si>
+    <t>74472-40-5</t>
+  </si>
+  <si>
+    <t>68194-13-8</t>
+  </si>
+  <si>
+    <t>74472-41-6</t>
+  </si>
+  <si>
+    <t>68194-08-1</t>
+  </si>
+  <si>
+    <t>68194-09-2</t>
+  </si>
+  <si>
+    <t>60145-22-4</t>
+  </si>
+  <si>
+    <t>33979-03-2</t>
+  </si>
+  <si>
+    <t>39635-35-3</t>
+  </si>
+  <si>
+    <t>41411-62-5</t>
+  </si>
+  <si>
+    <t>74472-43-8</t>
+  </si>
+  <si>
+    <t>39635-34-2</t>
+  </si>
+  <si>
+    <t>74472-45-0</t>
+  </si>
+  <si>
+    <t>74472-46-1</t>
+  </si>
+  <si>
+    <t>59291-65-5</t>
+  </si>
+  <si>
+    <t>52663-71-5</t>
+  </si>
+  <si>
+    <t>52663-74-8</t>
+  </si>
+  <si>
+    <t>68194-16-1</t>
+  </si>
+  <si>
+    <t>38411-25-5</t>
+  </si>
+  <si>
+    <t>40186-70-7</t>
+  </si>
+  <si>
+    <t>52663-65-7</t>
+  </si>
+  <si>
+    <t>74472-47-2</t>
+  </si>
+  <si>
+    <t>60145-23-5</t>
+  </si>
+  <si>
+    <t>74472-48-3</t>
+  </si>
+  <si>
+    <t>52712-05-7</t>
+  </si>
+  <si>
+    <t>74472-49-4</t>
+  </si>
+  <si>
+    <t>74487-85-7</t>
+  </si>
+  <si>
+    <t>41411-64-7</t>
+  </si>
+  <si>
+    <t>74472-50-7</t>
+  </si>
+  <si>
+    <t>74472-51-8</t>
+  </si>
+  <si>
+    <t>69782-91-8</t>
+  </si>
+  <si>
+    <t>52663-78-2</t>
+  </si>
+  <si>
+    <t>42740-50-1</t>
+  </si>
+  <si>
+    <t>33091-17-7</t>
+  </si>
+  <si>
+    <t>68194-17-2</t>
+  </si>
+  <si>
+    <t>52663-75-9</t>
+  </si>
+  <si>
+    <t>52663-73-7</t>
+  </si>
+  <si>
+    <t>52663-76-0</t>
+  </si>
+  <si>
+    <t>74472-52-9</t>
+  </si>
+  <si>
+    <t>74472-53-0</t>
+  </si>
+  <si>
+    <t>40186-72-9</t>
+  </si>
+  <si>
+    <t>52663-79-3</t>
+  </si>
+  <si>
+    <t>52663-77-1</t>
+  </si>
+  <si>
+    <t>77-73-6</t>
+  </si>
+  <si>
+    <t>115-26-4</t>
+  </si>
+  <si>
+    <t>95-68-1</t>
+  </si>
+  <si>
+    <t>2941-55-1</t>
+  </si>
+  <si>
+    <t>108-42-9</t>
+  </si>
+  <si>
+    <t>94-96-2</t>
+  </si>
+  <si>
+    <t>93-71-0</t>
+  </si>
+  <si>
+    <t>933-78-8</t>
+  </si>
+  <si>
+    <t>37764-25-3</t>
+  </si>
+  <si>
+    <t>122-59-8</t>
+  </si>
+  <si>
+    <t>24579-73-5</t>
+  </si>
+  <si>
+    <t>940-31-8</t>
+  </si>
+  <si>
+    <t>626-43-7</t>
+  </si>
+  <si>
+    <t>24934-91-6</t>
+  </si>
+  <si>
+    <t>1129-41-5</t>
+  </si>
+  <si>
+    <t>25013-16-5</t>
+  </si>
+  <si>
+    <t>62610-77-9</t>
+  </si>
+  <si>
+    <t>535-89-7</t>
+  </si>
+  <si>
+    <t>6597-78-0</t>
+  </si>
+  <si>
+    <t>112-56-1</t>
+  </si>
+  <si>
+    <t>3547-33-9</t>
+  </si>
+  <si>
+    <t>2631-40-5</t>
+  </si>
+  <si>
+    <t>8065-62-1</t>
+  </si>
+  <si>
+    <t>935-95-5</t>
+  </si>
+  <si>
+    <t>23844-56-6</t>
+  </si>
+  <si>
+    <t>4901-51-3</t>
+  </si>
+  <si>
+    <t>2436-73-9</t>
+  </si>
+  <si>
+    <t>23560-59-0</t>
+  </si>
+  <si>
+    <t>14437-17-3</t>
+  </si>
+  <si>
+    <t>1113-02-6</t>
+  </si>
+  <si>
+    <t>117-18-0</t>
+  </si>
+  <si>
+    <t>57153-17-0</t>
+  </si>
+  <si>
+    <t>919-86-8</t>
+  </si>
+  <si>
+    <t>1928-38-7</t>
+  </si>
+  <si>
+    <t>5825-87-6</t>
+  </si>
+  <si>
+    <t>6164-98-3</t>
+  </si>
+  <si>
+    <t>2655-15-4</t>
+  </si>
+  <si>
+    <t>39196-18-4</t>
+  </si>
+  <si>
+    <t>999055-03-7</t>
+  </si>
+  <si>
+    <t>60825-26-5</t>
+  </si>
+  <si>
+    <t>2876-78-0</t>
+  </si>
+  <si>
+    <t>17708-57-5</t>
+  </si>
+  <si>
+    <t>640-15-3</t>
+  </si>
+  <si>
+    <t>999025-03-5</t>
+  </si>
+  <si>
+    <t>999010-03-6</t>
+  </si>
+  <si>
+    <t>999012-03-2</t>
+  </si>
+  <si>
+    <t>999021-03-3</t>
+  </si>
+  <si>
+    <t>999014-03-8</t>
+  </si>
+  <si>
+    <t>999015-03-1</t>
+  </si>
+  <si>
+    <t>999011-03-9</t>
+  </si>
+  <si>
+    <t>999059-03-9</t>
+  </si>
+  <si>
+    <t>999060-03-6</t>
+  </si>
+  <si>
+    <t>33089-74-6</t>
+  </si>
+  <si>
+    <t>2425-10-7</t>
+  </si>
+  <si>
+    <t>3228-03-3</t>
+  </si>
+  <si>
+    <t>2314-09-2</t>
+  </si>
+  <si>
+    <t>999058-03-6</t>
+  </si>
+  <si>
+    <t>7025-06-1</t>
+  </si>
+  <si>
+    <t>6876-00-2</t>
+  </si>
+  <si>
+    <t>171977-44-9</t>
+  </si>
+  <si>
+    <t>147217-71-8</t>
+  </si>
+  <si>
+    <t>51930-04-2</t>
+  </si>
+  <si>
+    <t>6903-63-5</t>
+  </si>
+  <si>
+    <t>189084-59-1</t>
+  </si>
+  <si>
+    <t>83694-71-7</t>
+  </si>
+  <si>
+    <t>147217-77-4</t>
+  </si>
+  <si>
+    <t>155999-95-4</t>
+  </si>
+  <si>
+    <t>189084-60-4</t>
+  </si>
+  <si>
+    <t>147217-78-5</t>
+  </si>
+  <si>
+    <t>147217-80-9</t>
+  </si>
+  <si>
+    <t>147217-81-0</t>
+  </si>
+  <si>
+    <t>189084-62-6</t>
+  </si>
+  <si>
+    <t>93703-48-1</t>
+  </si>
+  <si>
+    <t>189084-65-9</t>
+  </si>
+  <si>
+    <t>446254-80-4</t>
+  </si>
+  <si>
+    <t>189084-66-0</t>
+  </si>
+  <si>
+    <t>182677-30-1</t>
+  </si>
+  <si>
+    <t>189084-58-0</t>
+  </si>
+  <si>
+    <t>26248-87-3</t>
+  </si>
+  <si>
+    <t>202-33-5 and 199-54-2</t>
+  </si>
+  <si>
+    <t>576-26-1</t>
+  </si>
+  <si>
+    <t>95-87-4</t>
+  </si>
+  <si>
+    <t>2416-94-6</t>
+  </si>
+  <si>
+    <t>527-60-6</t>
+  </si>
+  <si>
+    <t>37853-59-1</t>
+  </si>
+  <si>
+    <t>2113-57-7</t>
+  </si>
+  <si>
+    <t>92-66-0</t>
+  </si>
+  <si>
+    <t>13029-09-9</t>
+  </si>
+  <si>
+    <t>53592-10-2</t>
+  </si>
+  <si>
+    <t>57422-77-2</t>
+  </si>
+  <si>
+    <t>59080-32-9</t>
+  </si>
+  <si>
+    <t>59080-34-1</t>
+  </si>
+  <si>
+    <t>59080-35-2</t>
+  </si>
+  <si>
+    <t>115245-07-3</t>
+  </si>
+  <si>
+    <t>59080-33-0</t>
+  </si>
+  <si>
+    <t>59080-36-3</t>
+  </si>
+  <si>
+    <t>60044-25-9</t>
+  </si>
+  <si>
+    <t>77102-82-0</t>
+  </si>
+  <si>
+    <t>16400-50-3</t>
+  </si>
+  <si>
+    <t>96551-70-1</t>
+  </si>
+  <si>
+    <t>13684-56-5</t>
+  </si>
+  <si>
+    <t>1825-21-4</t>
+  </si>
+  <si>
+    <t>502-55-6</t>
+  </si>
+  <si>
+    <t>2686-99-9</t>
+  </si>
+  <si>
+    <t>1967-16-4</t>
+  </si>
+  <si>
+    <t>4841-20-7</t>
+  </si>
+  <si>
+    <t>33693-04-8</t>
+  </si>
+  <si>
+    <t>7286-84-2</t>
+  </si>
+  <si>
+    <t>5903-13-9</t>
+  </si>
+  <si>
+    <t>30979-48-7</t>
+  </si>
+  <si>
+    <t>2163-69-1</t>
+  </si>
+  <si>
+    <t>131-16-8</t>
+  </si>
+  <si>
+    <t>2636-26-2</t>
+  </si>
+  <si>
+    <t>57369-32-1</t>
+  </si>
+  <si>
+    <t>1912-26-1</t>
+  </si>
+  <si>
+    <t>944-22-9</t>
+  </si>
+  <si>
+    <t>1928-37-6</t>
+  </si>
+  <si>
+    <t>57153-18-1</t>
+  </si>
+  <si>
+    <t>26399-36-0</t>
+  </si>
+  <si>
+    <t>1420-07-1</t>
+  </si>
+  <si>
+    <t>83-26-1</t>
+  </si>
+  <si>
+    <t>24691-80-3</t>
+  </si>
+  <si>
+    <t>94-79-1</t>
+  </si>
+  <si>
+    <t>29091-05-2</t>
+  </si>
+  <si>
+    <t>16709-30-1</t>
+  </si>
+  <si>
+    <t>38260-54-7</t>
+  </si>
+  <si>
+    <t>1715-40-8</t>
+  </si>
+  <si>
+    <t>115-31-1</t>
+  </si>
+  <si>
+    <t>7286-69-3</t>
+  </si>
+  <si>
+    <t>74782-23-3</t>
+  </si>
+  <si>
+    <t>3369-52-6</t>
+  </si>
+  <si>
+    <t>26087-47-8</t>
+  </si>
+  <si>
+    <t>7287-36-7</t>
+  </si>
+  <si>
+    <t>3060-89-7</t>
+  </si>
+  <si>
+    <t>527-20-8</t>
+  </si>
+  <si>
+    <t>2540-82-1</t>
+  </si>
+  <si>
+    <t>18625-12-2</t>
+  </si>
+  <si>
+    <t>60568-05-0</t>
+  </si>
+  <si>
+    <t>6099-79-2</t>
+  </si>
+  <si>
+    <t>34681-23-7</t>
+  </si>
+  <si>
+    <t>575-36-0</t>
+  </si>
+  <si>
+    <t>68505-69-1</t>
+  </si>
+  <si>
+    <t>1014-69-3</t>
+  </si>
+  <si>
+    <t>1918-13-4</t>
+  </si>
+  <si>
+    <t>97-17-6</t>
+  </si>
+  <si>
+    <t>50563-36-5</t>
+  </si>
+  <si>
+    <t>22936-86-3</t>
+  </si>
+  <si>
+    <t>74712-19-9</t>
+  </si>
+  <si>
+    <t>2275-18-5</t>
+  </si>
+  <si>
+    <t>61592-45-8</t>
+  </si>
+  <si>
+    <t>3878-19-1</t>
+  </si>
+  <si>
+    <t>21757-82-4</t>
+  </si>
+  <si>
+    <t>1918-11-2</t>
+  </si>
+  <si>
+    <t>2164-09-2</t>
+  </si>
+  <si>
+    <t>57018-04-9</t>
+  </si>
+  <si>
+    <t>93-72-1</t>
+  </si>
+  <si>
+    <t>34123-59-6</t>
+  </si>
+  <si>
+    <t>1216-44-0</t>
+  </si>
+  <si>
+    <t>644-64-4</t>
+  </si>
+  <si>
+    <t>58138-08-2</t>
+  </si>
+  <si>
+    <t>301-12-2</t>
+  </si>
+  <si>
+    <t>311-45-5</t>
+  </si>
+  <si>
+    <t>2813-95-8</t>
+  </si>
+  <si>
+    <t>86-86-2</t>
+  </si>
+  <si>
+    <t>17040-19-6</t>
+  </si>
+  <si>
+    <t>64529-56-2</t>
+  </si>
+  <si>
+    <t>14143-55-6</t>
+  </si>
+  <si>
+    <t>1689-83-4</t>
+  </si>
+  <si>
+    <t>3204-27-1</t>
+  </si>
+  <si>
+    <t>2797-51-5</t>
+  </si>
+  <si>
+    <t>2307-68-8</t>
+  </si>
+  <si>
+    <t>85785-20-2</t>
+  </si>
+  <si>
+    <t>27605-76-1</t>
+  </si>
+  <si>
+    <t>15545-48-9</t>
+  </si>
+  <si>
+    <t>1085-98-9</t>
+  </si>
+  <si>
+    <t>919-76-6</t>
+  </si>
+  <si>
+    <t>4147-51-7</t>
+  </si>
+  <si>
+    <t>42588-37-4</t>
+  </si>
+  <si>
+    <t>87130-20-9</t>
+  </si>
+  <si>
+    <t>67628-93-7</t>
+  </si>
+  <si>
+    <t>90-98-2</t>
+  </si>
+  <si>
+    <t>3244-90-4</t>
+  </si>
+  <si>
+    <t>67564-91-4</t>
+  </si>
+  <si>
+    <t>57052-04-7</t>
+  </si>
+  <si>
+    <t>67888-96-4</t>
+  </si>
+  <si>
+    <t>59080-39-6</t>
+  </si>
+  <si>
+    <t>81381-52-4</t>
+  </si>
+  <si>
+    <t>120991-47-1</t>
+  </si>
+  <si>
+    <t>59080-40-9</t>
+  </si>
+  <si>
+    <t>60044-24-8</t>
+  </si>
+  <si>
+    <t>59261-08-4</t>
+  </si>
+  <si>
+    <t>77607-09-1</t>
+  </si>
+  <si>
+    <t>120991-48-2</t>
+  </si>
+  <si>
+    <t>60044-26-0</t>
+  </si>
+  <si>
+    <t>67733-52-2</t>
+  </si>
+  <si>
+    <t>88700-06-5</t>
+  </si>
+  <si>
+    <t>119264-60-7</t>
+  </si>
+  <si>
+    <t>591-20-8</t>
+  </si>
+  <si>
+    <t>106-41-2</t>
+  </si>
+  <si>
+    <t>57383-80-9</t>
+  </si>
+  <si>
+    <t>615-58-7</t>
+  </si>
+  <si>
+    <t>28165-52-8</t>
+  </si>
+  <si>
+    <t>608-33-3</t>
+  </si>
+  <si>
+    <t>626-41-5</t>
+  </si>
+  <si>
+    <t>138507-65-0</t>
+  </si>
+  <si>
+    <t>578-57-4</t>
+  </si>
+  <si>
+    <t>2398-37-0</t>
+  </si>
+  <si>
+    <t>104-92-7</t>
+  </si>
+  <si>
+    <t>95970-22-2</t>
+  </si>
+  <si>
+    <t>21702-84-1</t>
+  </si>
+  <si>
+    <t>95970-08-4</t>
+  </si>
+  <si>
+    <t>38603-09-7</t>
+  </si>
+  <si>
+    <t>74137-36-3</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>85-22-3</t>
+  </si>
+  <si>
+    <t>2463-84-5</t>
+  </si>
+  <si>
+    <t>297-78-9</t>
+  </si>
+  <si>
+    <t>28730-17-8</t>
+  </si>
+  <si>
+    <t>16118-49-3</t>
+  </si>
+  <si>
+    <t>36756-79-3</t>
+  </si>
+  <si>
+    <t>80-38-6</t>
+  </si>
+  <si>
+    <t>500-28-7</t>
+  </si>
+  <si>
+    <t>27355-22-2</t>
+  </si>
+  <si>
+    <t>10552-74-6</t>
+  </si>
+  <si>
+    <t>5707-69-7</t>
+  </si>
+  <si>
+    <t>299-86-5</t>
+  </si>
+  <si>
+    <t>1593-77-7</t>
+  </si>
+  <si>
+    <t>61213-25-0</t>
+  </si>
+  <si>
+    <t>10544-50-0</t>
+  </si>
+  <si>
+    <t>24691-76-7</t>
+  </si>
+  <si>
+    <t>2104-96-3</t>
+  </si>
+  <si>
+    <t>81-84-5</t>
+  </si>
+  <si>
+    <t>3868-61-9</t>
+  </si>
+  <si>
+    <t>29082-74-4</t>
+  </si>
+  <si>
+    <t>23505-41-1</t>
+  </si>
+  <si>
+    <t>67129-08-2</t>
+  </si>
+  <si>
+    <t>40596-69-8</t>
+  </si>
+  <si>
+    <t>53780-34-0</t>
+  </si>
+  <si>
+    <t>25059-80-7</t>
+  </si>
+  <si>
+    <t>13360-45-7</t>
+  </si>
+  <si>
+    <t>66246-88-6</t>
+  </si>
+  <si>
+    <t>22936-75-0</t>
+  </si>
+  <si>
+    <t>947-02-4</t>
+  </si>
+  <si>
+    <t>731-27-1</t>
+  </si>
+  <si>
+    <t>88283-41-4</t>
+  </si>
+  <si>
+    <t>42609-73-4</t>
+  </si>
+  <si>
+    <t>950-10-7</t>
+  </si>
+  <si>
+    <t>84332-86-5</t>
+  </si>
+  <si>
+    <t>25311-71-1</t>
+  </si>
+  <si>
+    <t>1086-02-8</t>
+  </si>
+  <si>
+    <t>13593-03-8</t>
+  </si>
+  <si>
+    <t>2597-03-7</t>
+  </si>
+  <si>
+    <t>2595-54-2</t>
+  </si>
+  <si>
+    <t>103-17-3</t>
+  </si>
+  <si>
+    <t>2439-01-2</t>
+  </si>
+  <si>
+    <t>57646-30-7</t>
+  </si>
+  <si>
+    <t>973-21-7</t>
+  </si>
+  <si>
+    <t>2536-31-4</t>
+  </si>
+  <si>
+    <t>4824-78-6</t>
+  </si>
+  <si>
+    <t>2275-23-2</t>
+  </si>
+  <si>
+    <t>961-11-5</t>
+  </si>
+  <si>
+    <t>97-16-5</t>
+  </si>
+  <si>
+    <t>76674-21-0</t>
+  </si>
+  <si>
+    <t>5131-24-8</t>
+  </si>
+  <si>
+    <t>3278-89-5</t>
+  </si>
+  <si>
+    <t>87-83-2</t>
+  </si>
+  <si>
+    <t>2039-86-3</t>
+  </si>
+  <si>
+    <t>1522-92-5</t>
+  </si>
+  <si>
+    <t>2039-82-9</t>
+  </si>
+  <si>
+    <t>39569-21-6</t>
+  </si>
+  <si>
+    <t>3322-93-8</t>
+  </si>
+  <si>
+    <t>35109-60-5</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>4656-58-0</t>
+  </si>
+  <si>
+    <t>602326-13-6</t>
+  </si>
+  <si>
+    <t>106-48-9</t>
+  </si>
+  <si>
+    <t>16766-30-6</t>
+  </si>
+  <si>
+    <t>77102-94-4</t>
+  </si>
+  <si>
+    <t>2460-49-3</t>
+  </si>
+  <si>
+    <t>16766-31-7</t>
   </si>
 </sst>
 </file>
@@ -12159,7 +15492,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12172,13 +15505,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -12190,7 +15544,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <protection locked="0"/>
     </xf>
@@ -12242,6 +15596,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12588,11 +15944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H1701"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
+      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16251,7 +19607,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>2516</v>
       </c>
@@ -20099,7 +23455,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>1673</v>
       </c>
@@ -27949,6 +31305,5561 @@
       </c>
       <c r="H590" s="11" t="s">
         <v>2747</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H591" s="13" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H592" s="14" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="593" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H593" s="13" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="594" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H594" s="14" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="595" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H595" s="13" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="596" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H596" s="14" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="597" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H597" s="13" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="598" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H598" s="14" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="599" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H599" s="13" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="600" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H600" s="14" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="601" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H601" s="13" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="602" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H602" s="14" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="603" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H603" s="13" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="604" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H604" s="14" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="605" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H605" s="13" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="606" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H606" s="14" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="607" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H607" s="13" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="608" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H608" s="14" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="609" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H609" s="13" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="610" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H610" s="14" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="611" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H611" s="13" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="612" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H612" s="14" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="613" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H613" s="13" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="614" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H614" s="14" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="615" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H615" s="13" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="616" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H616" s="14" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="617" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H617" s="13" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="618" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H618" s="14" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="619" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H619" s="13" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="620" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H620" s="14" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="621" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H621" s="13" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="622" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H622" s="14" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="623" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H623" s="13" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="624" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H624" s="14" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="625" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H625" s="13" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="626" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H626" s="14" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="627" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H627" s="13" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="628" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H628" s="14" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="629" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H629" s="13" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="630" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H630" s="14" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="631" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H631" s="13" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="632" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H632" s="14" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="633" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H633" s="13" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="634" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H634" s="14" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="635" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H635" s="13" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="636" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H636" s="14" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="637" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H637" s="13" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="638" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H638" s="14" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="639" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H639" s="13" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="640" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H640" s="14" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="641" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H641" s="13" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="642" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H642" s="14" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="643" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H643" s="13" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="644" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H644" s="14" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="645" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H645" s="13" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="646" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H646" s="14" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="647" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H647" s="13" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="648" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H648" s="14" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="649" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H649" s="13" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="650" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H650" s="14" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="651" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H651" s="13" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="652" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H652" s="14" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="653" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H653" s="13" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="654" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H654" s="14" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="655" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H655" s="13" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="656" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H656" s="14" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="657" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H657" s="13" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="658" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H658" s="14" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="659" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H659" s="13" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="660" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H660" s="14" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="661" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H661" s="13" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="662" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H662" s="14" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="663" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H663" s="13" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="664" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H664" s="14" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="665" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H665" s="13" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="666" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H666" s="14" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="667" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H667" s="13" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="668" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H668" s="14" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="669" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H669" s="13" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="670" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H670" s="14" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="671" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H671" s="13" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="672" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H672" s="14" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="673" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H673" s="13" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="674" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H674" s="14" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="675" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H675" s="13" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="676" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H676" s="14" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="677" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H677" s="13" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="678" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H678" s="14" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="679" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H679" s="13" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="680" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H680" s="14" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="681" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H681" s="13" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="682" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H682" s="14" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="683" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H683" s="13" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="684" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H684" s="14" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="685" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H685" s="13" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="686" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H686" s="14" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="687" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H687" s="13" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="688" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H688" s="14" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="689" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H689" s="13" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="690" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H690" s="14" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="691" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H691" s="13" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="692" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H692" s="14" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="693" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H693" s="13" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="694" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H694" s="14" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="695" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H695" s="13" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="696" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H696" s="14" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="697" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H697" s="13" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="698" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H698" s="14" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="699" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H699" s="13" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="700" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H700" s="14" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="701" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H701" s="13" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="702" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H702" s="14" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="703" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H703" s="13" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="704" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H704" s="14" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="705" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H705" s="13" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="706" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H706" s="14" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="707" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H707" s="13" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="708" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H708" s="14" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="709" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H709" s="13" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="710" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H710" s="14" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="711" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H711" s="13" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="712" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H712" s="14" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="713" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H713" s="13" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="714" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H714" s="14" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="715" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H715" s="13" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="716" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H716" s="14" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="717" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H717" s="13" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="718" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H718" s="14" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="719" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H719" s="13" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="720" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H720" s="14" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="721" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H721" s="13" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="722" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H722" s="14" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="723" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H723" s="13" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="724" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H724" s="14" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="725" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H725" s="13" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="726" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H726" s="14" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="727" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H727" s="13" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="728" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H728" s="14" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="729" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H729" s="13" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="730" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H730" s="14" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="731" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H731" s="13" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="732" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H732" s="14" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="733" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H733" s="13" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="734" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H734" s="14" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="735" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H735" s="13" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="736" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H736" s="14" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="737" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H737" s="13" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="738" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H738" s="14" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="739" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H739" s="13" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="740" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H740" s="14" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="741" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H741" s="13" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="742" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H742" s="14" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="743" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H743" s="13" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="744" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H744" s="14" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="745" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H745" s="13" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="746" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H746" s="14" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="747" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H747" s="13" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="748" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H748" s="14" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="749" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H749" s="13" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="750" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H750" s="14" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="751" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H751" s="13" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="752" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H752" s="14" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="753" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H753" s="13" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="754" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H754" s="14" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="755" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H755" s="13" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="756" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H756" s="14" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="757" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H757" s="13" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="758" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H758" s="14" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="759" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H759" s="13" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="760" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H760" s="14" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="761" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H761" s="13" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="762" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H762" s="14" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="763" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H763" s="13" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="764" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H764" s="14" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="765" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H765" s="13" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="766" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H766" s="14" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="767" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H767" s="13" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="768" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H768" s="14" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="769" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H769" s="13" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="770" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H770" s="14" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="771" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H771" s="13" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="772" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H772" s="14" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="773" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H773" s="13" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="774" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H774" s="14" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="775" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H775" s="13" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="776" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H776" s="14" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="777" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H777" s="13" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="778" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H778" s="14" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="779" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H779" s="13" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="780" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H780" s="14" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="781" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H781" s="13" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="782" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H782" s="14" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="783" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H783" s="13" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="784" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H784" s="14" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="785" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H785" s="13" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="786" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H786" s="14" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="787" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H787" s="13" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="788" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H788" s="14" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="789" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H789" s="13" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="790" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H790" s="14" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="791" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H791" s="13" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="792" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H792" s="14" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="793" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H793" s="13" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="794" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H794" s="14" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="795" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H795" s="13" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="796" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H796" s="14" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="797" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H797" s="13" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="798" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H798" s="14" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="799" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H799" s="13" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="800" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H800" s="14" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="801" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H801" s="13" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="802" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H802" s="14" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="803" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H803" s="13" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="804" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H804" s="14" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="805" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H805" s="13" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="806" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H806" s="14" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="807" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H807" s="13" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="808" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H808" s="14" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="809" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H809" s="13" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="810" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H810" s="14" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="811" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H811" s="13" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="812" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H812" s="14" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="813" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H813" s="13" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="814" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H814" s="14" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="815" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H815" s="13" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="816" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H816" s="14" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="817" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H817" s="13" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="818" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H818" s="14" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="819" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H819" s="13" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="820" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H820" s="14" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="821" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H821" s="13" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="822" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H822" s="14" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="823" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H823" s="13" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="824" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H824" s="14" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="825" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H825" s="13" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="826" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H826" s="14" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="827" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H827" s="13" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="828" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H828" s="14" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="829" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H829" s="13" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="830" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H830" s="14" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="831" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H831" s="13" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="832" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H832" s="14" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="833" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H833" s="13" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="834" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H834" s="14" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="835" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H835" s="13" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="836" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H836" s="14" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="837" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H837" s="13" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="838" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H838" s="14" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="839" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H839" s="13" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="840" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H840" s="14" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="841" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H841" s="13" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="842" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H842" s="14" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="843" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H843" s="13" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="844" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H844" s="14" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="845" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H845" s="13" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="846" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H846" s="14" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="847" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H847" s="13" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="848" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H848" s="14" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="849" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H849" s="13" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="850" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H850" s="14" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="851" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H851" s="13" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="852" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H852" s="14" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="853" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H853" s="13" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="854" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H854" s="14" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="855" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H855" s="13" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="856" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H856" s="14" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="857" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H857" s="13" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="858" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H858" s="14" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="859" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H859" s="13" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="860" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H860" s="14" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="861" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H861" s="13" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="862" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H862" s="14" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="863" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H863" s="13" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="864" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H864" s="14" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="865" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H865" s="13" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="866" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H866" s="14" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="867" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H867" s="13" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="868" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H868" s="14" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="869" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H869" s="13" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="870" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H870" s="14" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="871" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H871" s="13" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="872" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H872" s="14" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="873" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H873" s="13" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="874" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H874" s="14" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="875" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H875" s="13" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="876" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H876" s="14" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="877" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H877" s="13" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="878" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H878" s="14" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="879" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H879" s="13" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="880" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H880" s="14" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="881" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H881" s="13" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="882" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H882" s="14" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="883" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H883" s="13" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="884" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H884" s="14" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="885" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H885" s="13" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="886" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H886" s="14" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="887" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H887" s="13" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="888" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H888" s="14" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="889" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H889" s="13" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="890" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H890" s="14" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="891" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H891" s="13" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="892" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H892" s="14" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="893" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H893" s="13" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="894" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H894" s="14" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="895" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H895" s="13" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="896" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H896" s="14" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="897" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H897" s="13" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="898" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H898" s="14" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="899" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H899" s="13" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="900" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H900" s="14" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="901" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H901" s="13" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="902" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H902" s="14" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="903" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H903" s="13" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="904" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H904" s="14" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="905" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H905" s="13" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="906" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H906" s="14" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="907" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H907" s="13" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="908" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H908" s="14" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="909" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H909" s="13" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="910" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H910" s="14" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="911" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H911" s="13" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="912" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H912" s="14" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="913" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H913" s="13" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="914" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H914" s="14" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="915" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H915" s="13" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="916" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H916" s="14" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="917" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H917" s="13" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="918" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H918" s="14" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="919" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H919" s="13" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="920" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H920" s="14" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="921" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H921" s="13" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="922" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H922" s="14" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="923" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H923" s="13" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="924" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H924" s="14" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="925" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H925" s="13" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="926" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H926" s="14" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="927" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H927" s="13" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="928" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H928" s="14" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="929" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H929" s="13" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="930" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H930" s="14" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="931" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H931" s="13" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="932" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H932" s="14" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="933" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H933" s="13" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="934" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H934" s="14" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="935" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H935" s="13" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="936" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H936" s="14" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="937" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H937" s="13" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="938" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H938" s="14" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="939" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H939" s="13" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="940" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H940" s="14" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="941" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H941" s="13" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="942" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H942" s="14" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="943" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H943" s="13" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="944" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H944" s="14" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="945" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H945" s="13" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="946" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H946" s="14" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="947" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H947" s="13" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="948" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H948" s="14" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="949" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H949" s="13" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="950" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H950" s="14" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="951" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H951" s="13" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="952" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H952" s="14" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="953" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H953" s="13" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="954" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H954" s="14" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="955" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H955" s="13" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="956" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H956" s="14" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="957" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H957" s="13" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="958" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H958" s="14" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="959" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H959" s="13" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="960" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H960" s="14" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="961" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H961" s="13" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="962" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H962" s="14" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="963" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H963" s="13" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="964" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H964" s="14" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="965" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H965" s="13" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="966" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H966" s="14" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="967" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H967" s="13" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="968" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H968" s="14" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="969" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H969" s="13" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="970" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H970" s="14" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="971" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H971" s="13" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="972" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H972" s="14" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="973" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H973" s="13" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="974" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H974" s="14" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="975" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H975" s="13" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="976" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H976" s="14" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="977" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H977" s="13" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="978" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H978" s="14" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="979" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H979" s="13" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="980" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H980" s="14" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="981" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H981" s="13" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="982" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H982" s="14" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="983" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H983" s="13" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="984" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H984" s="14" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="985" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H985" s="13" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="986" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H986" s="14" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="987" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H987" s="13" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="988" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H988" s="14" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="989" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H989" s="13" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="990" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H990" s="14" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="991" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H991" s="13" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="992" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H992" s="14" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="993" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H993" s="13" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="994" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H994" s="14" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="995" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H995" s="13" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="996" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H996" s="14" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="997" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H997" s="13" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="998" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H998" s="14" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="999" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H999" s="13" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1000" s="14" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="1001" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1001" s="13" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="1002" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1002" s="14" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="1003" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1003" s="13" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="1004" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1004" s="14" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="1005" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1005" s="13" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="1006" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1006" s="14" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="1007" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1007" s="13" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="1008" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1008" s="14" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="1009" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1009" s="13" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="1010" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1010" s="14" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="1011" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1011" s="13" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="1012" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1012" s="14" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="1013" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1013" s="13" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="1014" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1014" s="14" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="1015" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1015" s="13" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="1016" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1016" s="14" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="1017" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1017" s="13" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="1018" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1018" s="14" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="1019" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1019" s="13" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="1020" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1020" s="14" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="1021" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1021" s="13" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="1022" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1022" s="14" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="1023" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1023" s="13" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="1024" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1024" s="14" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="1025" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1025" s="13" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="1026" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1026" s="14" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="1027" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1027" s="13" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="1028" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1028" s="14" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="1029" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1029" s="13" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="1030" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1030" s="14" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="1031" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1031" s="13" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="1032" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1032" s="14" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="1033" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1033" s="13" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="1034" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1034" s="14" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="1035" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1035" s="13" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="1036" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1036" s="14" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="1037" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1037" s="13" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="1038" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1038" s="14" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="1039" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1039" s="13" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="1040" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1040" s="14" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="1041" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1041" s="13" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="1042" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1042" s="14" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="1043" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1043" s="13" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="1044" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1044" s="14" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="1045" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1045" s="13" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="1046" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1046" s="14" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="1047" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1047" s="13" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="1048" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1048" s="14" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="1049" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1049" s="13" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="1050" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1050" s="14" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="1051" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1051" s="13" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="1052" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1052" s="14" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="1053" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1053" s="13" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="1054" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1054" s="14" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="1055" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1055" s="13" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="1056" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1056" s="14" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="1057" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1057" s="13" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="1058" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1058" s="14" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="1059" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1059" s="13" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="1060" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1060" s="14" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="1061" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1061" s="13" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="1062" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1062" s="14" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="1063" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1063" s="13" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="1064" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1064" s="14" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="1065" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1065" s="13" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="1066" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1066" s="14" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="1067" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1067" s="13" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="1068" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1068" s="14" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="1069" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1069" s="13" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="1070" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1070" s="14" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="1071" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1071" s="13" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="1072" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1072" s="14" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="1073" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1073" s="13" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="1074" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1074" s="14" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="1075" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1075" s="13" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="1076" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1076" s="14" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="1077" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1077" s="13" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1078" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1078" s="14" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1079" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1079" s="13" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="1080" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1080" s="14" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="1081" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1081" s="13" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="1082" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1082" s="14" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="1083" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1083" s="13" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="1084" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1084" s="14" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="1085" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1085" s="13" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="1086" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1086" s="14" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="1087" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1087" s="13" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="1088" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1088" s="14" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="1089" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1089" s="13" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="1090" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1090" s="14" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="1091" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1091" s="13" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="1092" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1092" s="14" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="1093" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1093" s="13" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="1094" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1094" s="14" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="1095" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1095" s="13" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="1096" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1096" s="14" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="1097" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1097" s="13" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="1098" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1098" s="14" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="1099" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1099" s="13" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="1100" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1100" s="14" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="1101" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1101" s="13" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="1102" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1102" s="14" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="1103" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1103" s="13" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="1104" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1104" s="14" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="1105" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1105" s="13" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="1106" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1106" s="14" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="1107" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1107" s="13" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="1108" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1108" s="14" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="1109" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1109" s="13" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="1110" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1110" s="14" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="1111" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1111" s="13" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="1112" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1112" s="14" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="1113" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1113" s="13" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="1114" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1114" s="14" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="1115" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1115" s="13" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="1116" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1116" s="14" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="1117" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1117" s="13" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="1118" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1118" s="14" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="1119" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1119" s="13" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="1120" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1120" s="14" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="1121" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1121" s="13" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="1122" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1122" s="14" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="1123" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1123" s="13" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="1124" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1124" s="14" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="1125" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1125" s="13" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="1126" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1126" s="14" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="1127" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1127" s="13" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="1128" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1128" s="14" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="1129" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1129" s="13" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="1130" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1130" s="14" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="1131" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1131" s="13" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="1132" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1132" s="14" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="1133" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1133" s="13" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="1134" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1134" s="14" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="1135" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1135" s="13" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="1136" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1136" s="14" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="1137" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1137" s="13" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="1138" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1138" s="14" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="1139" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1139" s="13" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="1140" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1140" s="14" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="1141" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1141" s="13" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="1142" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1142" s="14" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="1143" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1143" s="13" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="1144" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1144" s="14" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="1145" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1145" s="13" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="1146" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1146" s="14" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="1147" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1147" s="13" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="1148" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1148" s="14" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="1149" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1149" s="13" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="1150" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1150" s="14" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="1151" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1151" s="13" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="1152" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1152" s="14" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="1153" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1153" s="13" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="1154" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1154" s="14" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="1155" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1155" s="13" t="s">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="1156" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1156" s="14" t="s">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="1157" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1157" s="13" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="1158" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1158" s="14" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="1159" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1159" s="13" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="1160" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1160" s="14" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="1161" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1161" s="13" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="1162" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1162" s="14" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="1163" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1163" s="13" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="1164" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1164" s="14" t="s">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="1165" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1165" s="13" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="1166" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1166" s="14" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1167" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1167" s="13" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="1168" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1168" s="14" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="1169" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1169" s="13" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="1170" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1170" s="14" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="1171" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1171" s="13" t="s">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="1172" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1172" s="14" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="1173" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1173" s="13" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="1174" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1174" s="14" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="1175" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1175" s="13" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="1176" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1176" s="14" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="1177" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1177" s="13" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="1178" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1178" s="14" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="1179" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1179" s="13" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="1180" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1180" s="14" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="1181" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1181" s="13" t="s">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="1182" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1182" s="14" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="1183" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1183" s="13" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="1184" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1184" s="14" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="1185" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1185" s="13" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="1186" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1186" s="14" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="1187" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1187" s="13" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="1188" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1188" s="14" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="1189" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1189" s="13" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="1190" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1190" s="14" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="1191" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1191" s="13" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="1192" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1192" s="14" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="1193" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1193" s="13" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="1194" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1194" s="14" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="1195" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1195" s="13" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="1196" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1196" s="14" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="1197" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1197" s="13" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="1198" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1198" s="14" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="1199" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1199" s="13" t="s">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="1200" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1200" s="14" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="1201" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1201" s="13" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="1202" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1202" s="14" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="1203" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1203" s="13" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="1204" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1204" s="14" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="1205" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1205" s="13" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="1206" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1206" s="14" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="1207" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1207" s="13" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="1208" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1208" s="14" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="1209" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1209" s="13" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="1210" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1210" s="14" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="1211" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1211" s="13" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="1212" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1212" s="14" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="1213" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1213" s="13" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="1214" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1214" s="14" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="1215" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1215" s="13" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="1216" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1216" s="14" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="1217" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1217" s="13" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="1218" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1218" s="14" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="1219" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1219" s="13" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="1220" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1220" s="14" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="1221" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1221" s="13" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="1222" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1222" s="14" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="1223" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1223" s="13" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="1224" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1224" s="14" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="1225" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1225" s="13" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="1226" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1226" s="14" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="1227" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1227" s="13" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="1228" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1228" s="14" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="1229" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1229" s="13" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="1230" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1230" s="14" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="1231" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1231" s="13" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="1232" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1232" s="14" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="1233" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1233" s="13" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="1234" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1234" s="14" t="s">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="1235" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1235" s="13" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="1236" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1236" s="14" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="1237" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1237" s="13" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="1238" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1238" s="14" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="1239" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1239" s="13" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="1240" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1240" s="14" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="1241" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1241" s="13" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="1242" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1242" s="14" t="s">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="1243" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1243" s="13" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="1244" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1244" s="14" t="s">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="1245" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1245" s="13" t="s">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="1246" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1246" s="14" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="1247" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1247" s="13" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="1248" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1248" s="14" t="s">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="1249" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1249" s="13" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="1250" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1250" s="14" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="1251" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1251" s="13" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="1252" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1252" s="14" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="1253" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1253" s="13" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="1254" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1254" s="14" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="1255" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1255" s="13" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="1256" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1256" s="14" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="1257" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1257" s="13" t="s">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="1258" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1258" s="14" t="s">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="1259" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1259" s="13" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="1260" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1260" s="14" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="1261" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1261" s="13" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="1262" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1262" s="14" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="1263" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1263" s="13" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1264" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1264" s="14" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1265" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1265" s="13" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="1266" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1266" s="14" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="1267" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1267" s="13" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="1268" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1268" s="14" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="1269" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1269" s="13" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="1270" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1270" s="14" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="1271" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1271" s="13" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="1272" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1272" s="14" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="1273" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1273" s="13" t="s">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="1274" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1274" s="14" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="1275" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1275" s="13" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="1276" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1276" s="14" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="1277" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1277" s="13" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="1278" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1278" s="14" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="1279" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1279" s="13" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1280" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1280" s="14" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="1281" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1281" s="13" t="s">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="1282" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1282" s="14" t="s">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="1283" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1283" s="13" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="1284" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1284" s="14" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="1285" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1285" s="13" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="1286" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1286" s="14" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="1287" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1287" s="13" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="1288" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1288" s="14" t="s">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="1289" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1289" s="13" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="1290" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1290" s="14" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="1291" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1291" s="13" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="1292" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1292" s="14" t="s">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="1293" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1293" s="13" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="1294" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1294" s="14" t="s">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="1295" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1295" s="13" t="s">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="1296" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1296" s="14" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="1297" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1297" s="13" t="s">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="1298" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1298" s="14" t="s">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="1299" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1299" s="13" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="1300" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1300" s="14" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="1301" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1301" s="13" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="1302" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1302" s="14" t="s">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="1303" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1303" s="13" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="1304" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1304" s="14" t="s">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="1305" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1305" s="13" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="1306" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1306" s="14" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="1307" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1307" s="13" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="1308" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1308" s="14" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="1309" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1309" s="13" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="1310" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1310" s="14" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="1311" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1311" s="13" t="s">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="1312" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1312" s="14" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="1313" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1313" s="13" t="s">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="1314" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1314" s="14" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="1315" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1315" s="13" t="s">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="1316" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1316" s="14" t="s">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="1317" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1317" s="13" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="1318" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1318" s="14" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="1319" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1319" s="13" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="1320" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1320" s="14" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="1321" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1321" s="13" t="s">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="1322" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1322" s="14" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="1323" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1323" s="13" t="s">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="1324" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1324" s="14" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="1325" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1325" s="13" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="1326" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1326" s="14" t="s">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="1327" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1327" s="13" t="s">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="1328" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1328" s="14" t="s">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="1329" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1329" s="13" t="s">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="1330" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1330" s="14" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="1331" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1331" s="13" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="1332" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1332" s="14" t="s">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="1333" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1333" s="13" t="s">
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="1334" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1334" s="14" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="1335" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1335" s="13" t="s">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="1336" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1336" s="14" t="s">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="1337" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1337" s="13" t="s">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="1338" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1338" s="14" t="s">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="1339" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1339" s="13" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="1340" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1340" s="14" t="s">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="1341" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1341" s="13" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="1342" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1342" s="14" t="s">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="1343" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1343" s="13" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="1344" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1344" s="14" t="s">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="1345" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1345" s="13" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="1346" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1346" s="14" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="1347" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1347" s="13" t="s">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="1348" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1348" s="14" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="1349" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1349" s="13" t="s">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="1350" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1350" s="14" t="s">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="1351" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1351" s="13" t="s">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="1352" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1352" s="14" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="1353" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1353" s="13" t="s">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="1354" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1354" s="14" t="s">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="1355" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1355" s="13" t="s">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="1356" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1356" s="14" t="s">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="1357" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1357" s="13" t="s">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="1358" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1358" s="14" t="s">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="1359" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1359" s="13" t="s">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="1360" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1360" s="14" t="s">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="1361" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1361" s="13" t="s">
+        <v>4793</v>
+      </c>
+    </row>
+    <row r="1362" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1362" s="14" t="s">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="1363" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1363" s="13" t="s">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="1364" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1364" s="14" t="s">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="1365" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1365" s="13" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="1366" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1366" s="14" t="s">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="1367" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1367" s="13" t="s">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="1368" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1368" s="14" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="1369" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1369" s="13" t="s">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="1370" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1370" s="14" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="1371" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1371" s="13" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="1372" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1372" s="14" t="s">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="1373" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1373" s="13" t="s">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="1374" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1374" s="14" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="1375" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1375" s="13" t="s">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="1376" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1376" s="14" t="s">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="1377" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1377" s="13" t="s">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="1378" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1378" s="14" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="1379" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1379" s="13" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="1380" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1380" s="14" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="1381" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1381" s="13" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="1382" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1382" s="14" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="1383" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1383" s="13" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="1384" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1384" s="14" t="s">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="1385" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1385" s="13" t="s">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="1386" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1386" s="14" t="s">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="1387" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1387" s="13" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="1388" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1388" s="14" t="s">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="1389" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1389" s="13" t="s">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="1390" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1390" s="14" t="s">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="1391" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1391" s="13" t="s">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="1392" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1392" s="14" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="1393" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1393" s="13" t="s">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="1394" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1394" s="14" t="s">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="1395" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1395" s="13" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="1396" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1396" s="14" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="1397" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1397" s="13" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="1398" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1398" s="14" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="1399" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1399" s="13" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="1400" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1400" s="14" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="1401" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1401" s="13" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="1402" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1402" s="14" t="s">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="1403" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1403" s="13" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="1404" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1404" s="14" t="s">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="1405" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1405" s="13" t="s">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="1406" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1406" s="14" t="s">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="1407" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1407" s="13" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="1408" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1408" s="14" t="s">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="1409" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1409" s="13" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="1410" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1410" s="14" t="s">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="1411" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1411" s="13" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="1412" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1412" s="14" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="1413" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1413" s="13" t="s">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="1414" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1414" s="14" t="s">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="1415" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1415" s="13" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="1416" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1416" s="14" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="1417" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1417" s="13" t="s">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="1418" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1418" s="14" t="s">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="1419" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1419" s="13" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="1420" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1420" s="14" t="s">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="1421" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1421" s="13" t="s">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="1422" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1422" s="14" t="s">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="1423" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1423" s="13" t="s">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="1424" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1424" s="14" t="s">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="1425" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1425" s="13" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="1426" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1426" s="14" t="s">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="1427" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1427" s="13" t="s">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="1428" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1428" s="14" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="1429" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1429" s="13" t="s">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="1430" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1430" s="14" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="1431" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1431" s="13" t="s">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="1432" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1432" s="14" t="s">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="1433" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1433" s="13" t="s">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="1434" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1434" s="14" t="s">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="1435" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1435" s="13" t="s">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="1436" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1436" s="14" t="s">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="1437" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1437" s="13" t="s">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="1438" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1438" s="14" t="s">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="1439" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1439" s="13" t="s">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="1440" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1440" s="14" t="s">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="1441" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1441" s="13" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="1442" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1442" s="14" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="1443" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1443" s="13" t="s">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="1444" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1444" s="14" t="s">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="1445" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1445" s="13" t="s">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="1446" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1446" s="14" t="s">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="1447" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1447" s="13" t="s">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="1448" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1448" s="14" t="s">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="1449" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1449" s="13" t="s">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="1450" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1450" s="14" t="s">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="1451" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1451" s="13" t="s">
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="1452" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1452" s="14" t="s">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="1453" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1453" s="13" t="s">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="1454" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1454" s="14" t="s">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="1455" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1455" s="13" t="s">
+        <v>4887</v>
+      </c>
+    </row>
+    <row r="1456" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1456" s="14" t="s">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="1457" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1457" s="13" t="s">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="1458" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1458" s="14" t="s">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="1459" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1459" s="13" t="s">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="1460" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1460" s="14" t="s">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="1461" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1461" s="13" t="s">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="1462" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1462" s="14" t="s">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="1463" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1463" s="13" t="s">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="1464" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1464" s="14" t="s">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="1465" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1465" s="13" t="s">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="1466" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1466" s="14" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1467" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1467" s="13" t="s">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="1468" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1468" s="14" t="s">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="1469" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1469" s="13" t="s">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="1470" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1470" s="14" t="s">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="1471" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1471" s="13" t="s">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="1472" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1472" s="14" t="s">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="1473" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1473" s="13" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="1474" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1474" s="14" t="s">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="1475" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1475" s="13" t="s">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="1476" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1476" s="14" t="s">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="1477" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1477" s="13" t="s">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="1478" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1478" s="14" t="s">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="1479" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1479" s="13" t="s">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="1480" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1480" s="14" t="s">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="1481" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1481" s="13" t="s">
+        <v>4913</v>
+      </c>
+    </row>
+    <row r="1482" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1482" s="14" t="s">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="1483" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1483" s="13" t="s">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="1484" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1484" s="14" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="1485" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1485" s="13" t="s">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="1486" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1486" s="14" t="s">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="1487" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1487" s="13" t="s">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="1488" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1488" s="14" t="s">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="1489" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1489" s="13" t="s">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="1490" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1490" s="14" t="s">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="1491" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1491" s="13" t="s">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="1492" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1492" s="14" t="s">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="1493" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1493" s="13" t="s">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="1494" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1494" s="14" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="1495" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1495" s="13" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="1496" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1496" s="14" t="s">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="1497" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1497" s="13" t="s">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="1498" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1498" s="14" t="s">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="1499" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1499" s="13" t="s">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="1500" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1500" s="14" t="s">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="1501" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1501" s="13" t="s">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="1502" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1502" s="14" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="1503" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1503" s="13" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="1504" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1504" s="14" t="s">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="1505" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1505" s="13" t="s">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="1506" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1506" s="14" t="s">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="1507" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1507" s="13" t="s">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="1508" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1508" s="14" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="1509" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1509" s="13" t="s">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="1510" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1510" s="14" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="1511" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1511" s="13" t="s">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="1512" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1512" s="14" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="1513" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1513" s="13" t="s">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="1514" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1514" s="14" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="1515" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1515" s="13" t="s">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="1516" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1516" s="14" t="s">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="1517" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1517" s="13" t="s">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="1518" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1518" s="14" t="s">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="1519" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1519" s="13" t="s">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="1520" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1520" s="14" t="s">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="1521" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1521" s="13" t="s">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="1522" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1522" s="14" t="s">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="1523" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1523" s="13" t="s">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="1524" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1524" s="14" t="s">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="1525" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1525" s="13" t="s">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="1526" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1526" s="14" t="s">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="1527" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1527" s="13" t="s">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="1528" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1528" s="14" t="s">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="1529" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1529" s="13" t="s">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="1530" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1530" s="14" t="s">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="1531" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1531" s="13" t="s">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="1532" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1532" s="14" t="s">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="1533" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1533" s="13" t="s">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="1534" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1534" s="14" t="s">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="1535" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1535" s="13" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="1536" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1536" s="14" t="s">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="1537" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1537" s="13" t="s">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="1538" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1538" s="14" t="s">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="1539" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1539" s="13" t="s">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="1540" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1540" s="14" t="s">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="1541" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1541" s="13" t="s">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="1542" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1542" s="14" t="s">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="1543" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1543" s="13" t="s">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="1544" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1544" s="14" t="s">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="1545" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1545" s="13" t="s">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="1546" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1546" s="14" t="s">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="1547" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1547" s="13" t="s">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="1548" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1548" s="14" t="s">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="1549" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1549" s="13" t="s">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="1550" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1550" s="14" t="s">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="1551" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1551" s="13" t="s">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="1552" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1552" s="14" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="1553" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1553" s="13" t="s">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="1554" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1554" s="14" t="s">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="1555" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1555" s="13" t="s">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="1556" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1556" s="14" t="s">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="1557" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1557" s="13" t="s">
+        <v>4989</v>
+      </c>
+    </row>
+    <row r="1558" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1558" s="14" t="s">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="1559" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1559" s="13" t="s">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="1560" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1560" s="14" t="s">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="1561" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1561" s="13" t="s">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="1562" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1562" s="14" t="s">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="1563" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1563" s="13" t="s">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="1564" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1564" s="14" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="1565" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1565" s="13" t="s">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="1566" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1566" s="14" t="s">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="1567" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1567" s="13" t="s">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="1568" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1568" s="14" t="s">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1569" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1569" s="13" t="s">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="1570" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1570" s="14" t="s">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="1571" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1571" s="13" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="1572" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1572" s="14" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="1573" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1573" s="13" t="s">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="1574" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1574" s="14" t="s">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="1575" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1575" s="13" t="s">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="1576" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1576" s="14" t="s">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="1577" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1577" s="13" t="s">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="1578" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1578" s="14" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="1579" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1579" s="13" t="s">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="1580" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1580" s="14" t="s">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="1581" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1581" s="13" t="s">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="1582" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1582" s="14" t="s">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="1583" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1583" s="13" t="s">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="1584" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1584" s="14" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="1585" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1585" s="13" t="s">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="1586" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1586" s="14" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="1587" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1587" s="13" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="1588" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1588" s="14" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="1589" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1589" s="13" t="s">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="1590" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1590" s="14" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="1591" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1591" s="13" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="1592" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1592" s="14" t="s">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="1593" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1593" s="13" t="s">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="1594" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1594" s="14" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="1595" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1595" s="13" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="1596" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1596" s="14" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="1597" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1597" s="13" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="1598" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1598" s="14" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="1599" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1599" s="13" t="s">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="1600" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1600" s="14" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="1601" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1601" s="13" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="1602" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1602" s="14" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="1603" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1603" s="13" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="1604" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1604" s="14" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="1605" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1605" s="13" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="1606" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1606" s="14" t="s">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="1607" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1607" s="13" t="s">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="1608" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1608" s="14" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="1609" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1609" s="13" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="1610" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1610" s="14" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="1611" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1611" s="13" t="s">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="1612" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1612" s="14" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="1613" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1613" s="13" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="1614" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1614" s="14" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="1615" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1615" s="13" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="1616" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1616" s="14" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="1617" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1617" s="13" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="1618" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1618" s="14" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="1619" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1619" s="13" t="s">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="1620" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1620" s="14" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="1621" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1621" s="13" t="s">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="1622" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1622" s="14" t="s">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="1623" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1623" s="13" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="1624" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1624" s="14" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="1625" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1625" s="13" t="s">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="1626" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1626" s="14" t="s">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="1627" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1627" s="13" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="1628" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1628" s="14" t="s">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="1629" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1629" s="13" t="s">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="1630" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1630" s="14" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="1631" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1631" s="13" t="s">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="1632" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1632" s="14" t="s">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="1633" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1633" s="13" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="1634" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1634" s="14" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="1635" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1635" s="13" t="s">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="1636" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1636" s="14" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="1637" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1637" s="13" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="1638" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1638" s="14" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="1639" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1639" s="13" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="1640" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1640" s="14" t="s">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="1641" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1641" s="13" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="1642" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1642" s="14" t="s">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="1643" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1643" s="13" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="1644" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1644" s="14" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="1645" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1645" s="13" t="s">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="1646" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1646" s="14" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="1647" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1647" s="13" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="1648" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1648" s="14" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="1649" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1649" s="13" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="1650" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1650" s="14" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="1651" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1651" s="13" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="1652" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1652" s="14" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="1653" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1653" s="13" t="s">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="1654" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1654" s="14" t="s">
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="1655" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1655" s="13" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="1656" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1656" s="14" t="s">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="1657" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1657" s="13" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="1658" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1658" s="14" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="1659" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1659" s="13" t="s">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="1660" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1660" s="14" t="s">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="1661" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1661" s="13" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="1662" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1662" s="14" t="s">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="1663" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1663" s="13" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="1664" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1664" s="14" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="1665" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1665" s="13" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="1666" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1666" s="14" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="1667" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1667" s="13" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="1668" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1668" s="14" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="1669" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1669" s="13" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="1670" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1670" s="14" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="1671" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1671" s="13" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="1672" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1672" s="14" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="1673" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1673" s="13" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="1674" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1674" s="14" t="s">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="1675" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1675" s="13" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="1676" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1676" s="14" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="1677" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1677" s="13" t="s">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="1678" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1678" s="14" t="s">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="1679" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1679" s="13" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="1680" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1680" s="14" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="1681" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1681" s="13" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="1682" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1682" s="14" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="1683" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1683" s="13" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="1684" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1684" s="14" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="1685" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1685" s="13" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="1686" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1686" s="14" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="1687" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1687" s="13" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="1688" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1688" s="14" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="1689" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1689" s="13" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="1690" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1690" s="14" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="1691" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1691" s="13" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="1692" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1692" s="14" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="1693" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1693" s="13" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="1694" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1694" s="14" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="1695" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1695" s="13" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="1696" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1696" s="14" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="1697" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1697" s="13" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="1698" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1698" s="14" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="1699" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1699" s="13" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="1700" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1700" s="14" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="1701" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1701" s="13" t="s">
+        <v>5133</v>
       </c>
     </row>
   </sheetData>

--- a/bmd2Samps/data/ChemicalDescriptions.xlsx
+++ b/bmd2Samps/data/ChemicalDescriptions.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/bmd2Samps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{3E8F46E8-3A83-400C-A1D4-CB60954EF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB69084-0443-4407-B5B9-19F6545ED7CE}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{3E8F46E8-3A83-400C-A1D4-CB60954EF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C82067-F2D9-479B-85A9-28903BADBB5F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21135" yWindow="1260" windowWidth="21765" windowHeight="22005" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemical List (589)" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Chemical List (589)'!$A$1:$GK$1701</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5831" uniqueCount="5134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="5153">
   <si>
     <t>DTXSID</t>
   </si>
@@ -15432,6 +15435,63 @@
   </si>
   <si>
     <t>16766-31-7</t>
+  </si>
+  <si>
+    <t>1-Methylpyrene is a member of pyrenes.</t>
+  </si>
+  <si>
+    <t>1-methylphenanthrene is a member of the class of phenanthrenes that is phenanthrene substituted by a methyl group at position 1. It has a role as a mutagen.</t>
+  </si>
+  <si>
+    <t>Benzo[c]fluorene is a carbotetracyclic compound.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picene is a hydrocarbon found in the pitchy residue obtained in the distillation of peat tar and of petroleum. </t>
+  </si>
+  <si>
+    <t>Dibenzopyrenes are a group of high molecular weight polycyclic aromatic hydrocarbons with the molecular formula C24H14</t>
+  </si>
+  <si>
+    <t>1,2-Dibromo-3-chloropropane, (dibromochloropropane) better known as DBCP, is the organic compound with the formula BrCH(CH2Br)(CH2Cl). It is a dense colorless liquid although commercial samples often appear amber or even brown. It is the active ingredient in the nematicide Nemagon, also known as Fumazone.</t>
+  </si>
+  <si>
+    <t>1-Naphthylamine is an aromatic amine derived from naphthalene. It can cause bladder cancer (transitional cell carcinoma). It crystallizes in colorless needles which melt at 50 °C. </t>
+  </si>
+  <si>
+    <t>Mitotane, sold under the brand name Lysodren, is a steroidogenesis inhibitor and cytostatic antineoplastic medication which is used in the treatment of adrenocortical carcinoma and Cushing's syndrome.</t>
+  </si>
+  <si>
+    <t>No description</t>
+  </si>
+  <si>
+    <t>2,6-Dichlorophenol is a compound with formula C6H3Cl2OH. It is one of the six isomers of dichlorophenol. It is a colorless solid.</t>
+  </si>
+  <si>
+    <t>2-Nitroaniline is an organic compound with the formula H2NC6H4NO2. It is a derivative of aniline, carrying a nitro functional group in position 2.</t>
+  </si>
+  <si>
+    <t>meta-Cresol, also 3-methylphenol, is an organic compound with the formula CH3C6H4(OH). It is a colourless, viscous liquid that is used as an intermediate in the production of other chemicals</t>
+  </si>
+  <si>
+    <t>3-Nitroaniline, also known as meta-nitroaniline and m-nitroaniline, is a non-volatile stable solid commonly used as a raw material for dyes. </t>
+  </si>
+  <si>
+    <t>4-Aminobiphenyl (4-APB) is an organic compound with the formula C6H5C6H4NH2. It is an amine derivative of biphenyl. It is a colorless solid, although aged samples can appear colored. 4-Aminobiphenyl was commonly used in the past as a rubber antioxidant and an intermediate for dyes.</t>
+  </si>
+  <si>
+    <t>α-Hexachlorocyclohexane (α-HCH) is an organochloride which is one of the isomers of hexachlorocyclohexane (HCH). It is a byproduct of the production of the insecticide lindane (γ-HCH) and it is typically still contained in commercial grade lindane used as insecticide.</t>
+  </si>
+  <si>
+    <t>Animocarb (Matacil) is an organic chemical compound with the molecular formula C11H16N2O2. It has a colorless or white crystal-like appearance and is most commonly used as an insecticide.</t>
+  </si>
+  <si>
+    <t>Captafol is a fungicide. It is used to control almost all fungal diseases of plants except powdery mildews. It is believed to be a human carcinogen, and production for use as a fungicide in the United States stopped in 1987. </t>
+  </si>
+  <si>
+    <t>Carbophenothion also known as Stauffer R 1303 as for the manufacturer, Stauffer Chemical, is an organophosphorus chemical compound. It was used as a pesticide for citrus fruits under the name of Trithion</t>
+  </si>
+  <si>
+    <t>Chlorfenvinphos is the common name of an organophosphorus compound that was widely used as an insecticide and an acaricide. The molecule itself can be described as an enol ester derived from dichloroacetophenone and diethylphosphonic acid.</t>
   </si>
 </sst>
 </file>
@@ -15947,8 +16007,8 @@
   <dimension ref="A1:H1701"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F612" sqref="F612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15958,7 +16018,7 @@
     <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="103.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -20309,7 +20369,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="165" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>259</v>
       </c>
@@ -20621,7 +20681,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>2563</v>
       </c>
@@ -23455,7 +23515,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>1673</v>
       </c>
@@ -23637,7 +23697,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>2700</v>
       </c>
@@ -30813,7 +30873,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="165" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
         <v>767</v>
       </c>
@@ -31308,251 +31368,362 @@
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F591" s="3" t="s">
+        <v>5134</v>
+      </c>
       <c r="H591" s="13" t="s">
         <v>4023</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F592" s="3" t="s">
+        <v>5135</v>
+      </c>
       <c r="H592" s="14" t="s">
         <v>4024</v>
       </c>
     </row>
-    <row r="593" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F593" s="3" t="s">
+        <v>5136</v>
+      </c>
       <c r="H593" s="13" t="s">
         <v>4025</v>
       </c>
     </row>
-    <row r="594" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G594" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H594" s="14" t="s">
         <v>4026</v>
       </c>
     </row>
-    <row r="595" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F595" s="3" t="s">
+        <v>5137</v>
+      </c>
       <c r="H595" s="13" t="s">
         <v>4027</v>
       </c>
     </row>
-    <row r="596" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G596" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H596" s="14" t="s">
         <v>4028</v>
       </c>
     </row>
-    <row r="597" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F597" s="3" t="s">
+        <v>5138</v>
+      </c>
       <c r="H597" s="13" t="s">
         <v>4029</v>
       </c>
     </row>
-    <row r="598" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G598" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H598" s="14" t="s">
         <v>4030</v>
       </c>
     </row>
-    <row r="599" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F599" s="3" t="s">
+        <v>5139</v>
+      </c>
       <c r="H599" s="13" t="s">
         <v>4031</v>
       </c>
     </row>
-    <row r="600" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F600" s="3" t="s">
+        <v>5140</v>
+      </c>
       <c r="H600" s="14" t="s">
         <v>4032</v>
       </c>
     </row>
-    <row r="601" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G601" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H601" s="13" t="s">
         <v>4033</v>
       </c>
     </row>
-    <row r="602" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G602" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H602" s="14" t="s">
         <v>4034</v>
       </c>
     </row>
-    <row r="603" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G603" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H603" s="13" t="s">
         <v>4035</v>
       </c>
     </row>
-    <row r="604" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G604" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H604" s="14" t="s">
         <v>4036</v>
       </c>
     </row>
-    <row r="605" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G605" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H605" s="13" t="s">
         <v>4037</v>
       </c>
     </row>
-    <row r="606" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F606" s="3" t="s">
+        <v>5141</v>
+      </c>
       <c r="H606" s="14" t="s">
         <v>4038</v>
       </c>
     </row>
-    <row r="607" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G607" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H607" s="13" t="s">
         <v>4039</v>
       </c>
     </row>
-    <row r="608" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F608" s="3" t="s">
+        <v>5143</v>
+      </c>
       <c r="H608" s="14" t="s">
         <v>4040</v>
       </c>
     </row>
-    <row r="609" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F609" s="3" t="s">
+        <v>5144</v>
+      </c>
       <c r="H609" s="13" t="s">
         <v>4041</v>
       </c>
     </row>
-    <row r="610" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G610" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H610" s="14" t="s">
         <v>4042</v>
       </c>
     </row>
-    <row r="611" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G611" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H611" s="13" t="s">
         <v>4043</v>
       </c>
     </row>
-    <row r="612" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F612" s="3" t="s">
+        <v>5145</v>
+      </c>
       <c r="H612" s="14" t="s">
         <v>4044</v>
       </c>
     </row>
-    <row r="613" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F613" s="3" t="s">
+        <v>5146</v>
+      </c>
       <c r="H613" s="13" t="s">
         <v>4045</v>
       </c>
     </row>
-    <row r="614" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F614" s="3" t="s">
+        <v>5147</v>
+      </c>
       <c r="H614" s="14" t="s">
         <v>4046</v>
       </c>
     </row>
-    <row r="615" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G615" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H615" s="13" t="s">
         <v>4047</v>
       </c>
     </row>
-    <row r="616" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F616" s="3" t="s">
+        <v>5148</v>
+      </c>
       <c r="H616" s="14" t="s">
         <v>4048</v>
       </c>
     </row>
-    <row r="617" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G617" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H617" s="13" t="s">
         <v>4049</v>
       </c>
     </row>
-    <row r="618" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F618" s="3" t="s">
+        <v>5149</v>
+      </c>
       <c r="H618" s="14" t="s">
         <v>4050</v>
       </c>
     </row>
-    <row r="619" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G619" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H619" s="13" t="s">
         <v>4051</v>
       </c>
     </row>
-    <row r="620" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G620" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H620" s="14" t="s">
         <v>4052</v>
       </c>
     </row>
-    <row r="621" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G621" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H621" s="13" t="s">
         <v>4053</v>
       </c>
     </row>
-    <row r="622" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F622" s="3" t="s">
+        <v>5150</v>
+      </c>
       <c r="H622" s="14" t="s">
         <v>4054</v>
       </c>
     </row>
-    <row r="623" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F623" s="3" t="s">
+        <v>5151</v>
+      </c>
       <c r="H623" s="13" t="s">
         <v>4055</v>
       </c>
     </row>
-    <row r="624" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F624" s="3" t="s">
+        <v>5152</v>
+      </c>
       <c r="H624" s="14" t="s">
         <v>4056</v>
       </c>
     </row>
-    <row r="625" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G625" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H625" s="13" t="s">
         <v>4057</v>
       </c>
     </row>
-    <row r="626" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G626" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H626" s="14" t="s">
         <v>4058</v>
       </c>
     </row>
-    <row r="627" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G627" s="1" t="s">
+        <v>5142</v>
+      </c>
       <c r="H627" s="13" t="s">
         <v>4059</v>
       </c>
     </row>
-    <row r="628" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H628" s="14" t="s">
         <v>4060</v>
       </c>
     </row>
-    <row r="629" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H629" s="13" t="s">
         <v>4061</v>
       </c>
     </row>
-    <row r="630" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H630" s="14" t="s">
         <v>4062</v>
       </c>
     </row>
-    <row r="631" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H631" s="13" t="s">
         <v>4063</v>
       </c>
     </row>
-    <row r="632" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H632" s="14" t="s">
         <v>4064</v>
       </c>
     </row>
-    <row r="633" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H633" s="13" t="s">
         <v>4065</v>
       </c>
     </row>
-    <row r="634" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H634" s="14" t="s">
         <v>4066</v>
       </c>
     </row>
-    <row r="635" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H635" s="13" t="s">
         <v>4067</v>
       </c>
     </row>
-    <row r="636" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H636" s="14" t="s">
         <v>4068</v>
       </c>
     </row>
-    <row r="637" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H637" s="13" t="s">
         <v>4069</v>
       </c>
     </row>
-    <row r="638" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H638" s="14" t="s">
         <v>4070</v>
       </c>
     </row>
-    <row r="639" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H639" s="13" t="s">
         <v>4071</v>
       </c>
     </row>
-    <row r="640" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H640" s="14" t="s">
         <v>4072</v>
       </c>
@@ -36863,6 +37034,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:GK1701" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:GK664">
     <sortCondition ref="E2:E664"/>
   </sortState>
